--- a/data/2024-2.xlsx
+++ b/data/2024-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TAN\Desktop\KPIWebApp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E73884-4791-4ED3-A3AC-8B6BE692AB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0429E3-7767-46C5-9E70-4A11CDC33FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C5E7FFAA-552F-4261-8994-E2DFFF5B4D17}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="267">
   <si>
     <t>Department</t>
   </si>
@@ -826,6 +826,12 @@
   </si>
   <si>
     <t>Đặng Minh Trí</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -1293,10 +1299,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="B1:O241"/>
+  <dimension ref="B1:Q241"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1305,15 +1311,16 @@
     <col min="2" max="2" width="9.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="14" width="13.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="53.140625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="5" max="6" width="8" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
+    <col min="9" max="16" width="13.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="53.140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:17" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>220</v>
       </c>
@@ -1330,9 +1337,11 @@
       <c r="M2" s="11"/>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
-    </row>
-    <row r="3" spans="2:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+    </row>
+    <row r="3" spans="2:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1342,41 +1351,47 @@
       <c r="D4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="O4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
@@ -1386,39 +1401,45 @@
       <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="7">
-        <v>100</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G5" s="7">
+        <v>100</v>
+      </c>
+      <c r="H5" s="7">
         <v>-0.3</v>
       </c>
-      <c r="G5" s="8">
+      <c r="I5" s="8">
         <v>99.7</v>
       </c>
-      <c r="H5" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="J5" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K5" s="3">
         <v>21</v>
       </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
       <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
         <v>21</v>
       </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
@@ -1428,39 +1449,45 @@
       <c r="D6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="7">
-        <v>100</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G6" s="7">
+        <v>100</v>
+      </c>
+      <c r="H6" s="7">
         <v>-1</v>
       </c>
-      <c r="G6" s="8">
+      <c r="I6" s="8">
         <v>99</v>
       </c>
-      <c r="H6" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="J6" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K6" s="3">
         <v>20</v>
       </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
       <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
         <v>20</v>
       </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
@@ -1470,39 +1497,45 @@
       <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G7" s="7">
         <v>99.492957746478865</v>
       </c>
-      <c r="F7" s="7">
+      <c r="H7" s="7">
         <v>-0.89999999999999991</v>
       </c>
-      <c r="G7" s="8">
+      <c r="I7" s="8">
         <v>98.592957746478859</v>
       </c>
-      <c r="H7" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="J7" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K7" s="3">
         <v>63</v>
       </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
       <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
         <v>62</v>
       </c>
-      <c r="M7" s="3">
+      <c r="O7" s="3">
         <v>1</v>
       </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
@@ -1512,39 +1545,45 @@
       <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G8" s="7">
         <v>99.28</v>
       </c>
-      <c r="F8" s="7">
+      <c r="H8" s="7">
         <v>-2</v>
       </c>
-      <c r="G8" s="8">
+      <c r="I8" s="8">
         <v>97.28</v>
       </c>
-      <c r="H8" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="J8" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K8" s="3">
         <v>28</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>25</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
@@ -1554,39 +1593,45 @@
       <c r="D9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G9" s="7">
         <v>95.920948616600782</v>
       </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
         <v>95.920948616600782</v>
       </c>
-      <c r="H9" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="J9" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K9" s="3">
         <v>31</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
       <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>29</v>
       </c>
-      <c r="M9" s="3">
-        <v>2</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O9" s="3">
+        <v>2</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
@@ -1596,39 +1641,45 @@
       <c r="D10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G10" s="7">
         <v>99.8</v>
       </c>
-      <c r="F10" s="7">
-        <v>2</v>
-      </c>
-      <c r="G10" s="8">
+      <c r="H10" s="7">
+        <v>2</v>
+      </c>
+      <c r="I10" s="8">
         <v>101.8</v>
       </c>
-      <c r="H10" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="J10" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K10" s="3">
         <v>41</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>40</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1638,39 +1689,45 @@
       <c r="D11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="7">
-        <v>100</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
-        <v>100</v>
-      </c>
-      <c r="H11" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G11" s="7">
+        <v>100</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>100</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K11" s="3">
         <v>20</v>
       </c>
-      <c r="J11" s="3">
-        <v>0</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0</v>
-      </c>
       <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
         <v>20</v>
       </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="O11" s="10"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
@@ -1680,41 +1737,47 @@
       <c r="D12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G12" s="7">
         <v>99.869565217391312</v>
       </c>
-      <c r="F12" s="7">
+      <c r="H12" s="7">
         <v>-0.3</v>
       </c>
-      <c r="G12" s="8">
+      <c r="I12" s="8">
         <v>99.569565217391315</v>
       </c>
-      <c r="H12" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="J12" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K12" s="3">
         <v>43</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
       <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
         <v>42</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>1</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3" t="s">
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
@@ -1724,39 +1787,45 @@
       <c r="D13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G13" s="7">
         <v>99.857142857142875</v>
       </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
         <v>99.857142857142875</v>
       </c>
-      <c r="H13" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I13" s="3">
+      <c r="J13" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K13" s="3">
         <v>53</v>
       </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0</v>
-      </c>
       <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
         <v>52</v>
       </c>
-      <c r="M13" s="3">
+      <c r="O13" s="3">
         <v>1</v>
       </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
@@ -1766,39 +1835,45 @@
       <c r="D14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G14" s="7">
         <v>99.72727272727272</v>
       </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8">
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8">
         <v>99.72727272727272</v>
       </c>
-      <c r="H14" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K14" s="3">
         <v>34</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>32</v>
       </c>
-      <c r="M14" s="3">
-        <v>2</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O14" s="3">
+        <v>2</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>34</v>
       </c>
@@ -1808,39 +1883,45 @@
       <c r="D15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="7">
-        <v>100</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8">
-        <v>100</v>
-      </c>
-      <c r="H15" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G15" s="7">
+        <v>100</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
+        <v>100</v>
+      </c>
+      <c r="J15" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K15" s="3">
         <v>40</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
       <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
         <v>40</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>38</v>
       </c>
@@ -1850,41 +1931,47 @@
       <c r="D16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="7">
-        <v>100</v>
-      </c>
-      <c r="F16" s="7">
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G16" s="7">
+        <v>100</v>
+      </c>
+      <c r="H16" s="7">
         <v>3</v>
       </c>
-      <c r="G16" s="8">
+      <c r="I16" s="8">
         <v>103</v>
       </c>
-      <c r="H16" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I16" s="3">
+      <c r="J16" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K16" s="3">
         <v>28</v>
       </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0</v>
-      </c>
       <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
         <v>28</v>
       </c>
-      <c r="M16" s="3">
-        <v>0</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0</v>
-      </c>
-      <c r="O16" s="3" t="s">
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>40</v>
       </c>
@@ -1894,41 +1981,47 @@
       <c r="D17" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="7">
-        <v>100</v>
-      </c>
-      <c r="F17" s="7">
+      <c r="E17" s="2">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G17" s="7">
+        <v>100</v>
+      </c>
+      <c r="H17" s="7">
         <v>2.4</v>
       </c>
-      <c r="G17" s="8">
+      <c r="I17" s="8">
         <v>102.4</v>
       </c>
-      <c r="H17" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="J17" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K17" s="3">
         <v>27</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>1</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>26</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3" t="s">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>42</v>
       </c>
@@ -1938,39 +2031,45 @@
       <c r="D18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="7">
-        <v>100</v>
-      </c>
-      <c r="F18" s="7">
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G18" s="7">
+        <v>100</v>
+      </c>
+      <c r="H18" s="7">
         <v>-1.5</v>
       </c>
-      <c r="G18" s="8">
+      <c r="I18" s="8">
         <v>98.5</v>
       </c>
-      <c r="H18" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K18" s="3">
         <v>32</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>32</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>44</v>
       </c>
@@ -1980,39 +2079,45 @@
       <c r="D19" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G19" s="7">
         <v>98.421052631578945</v>
       </c>
-      <c r="F19" s="7">
+      <c r="H19" s="7">
         <v>-0.3</v>
       </c>
-      <c r="G19" s="8">
+      <c r="I19" s="8">
         <v>98.121052631578948</v>
       </c>
-      <c r="H19" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I19" s="3">
+      <c r="J19" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K19" s="3">
         <v>21</v>
       </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3">
-        <v>2</v>
-      </c>
       <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>2</v>
+      </c>
+      <c r="N19" s="3">
         <v>18</v>
       </c>
-      <c r="M19" s="3">
+      <c r="O19" s="3">
         <v>1</v>
       </c>
-      <c r="N19" s="3">
-        <v>0</v>
-      </c>
-      <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>46</v>
       </c>
@@ -2022,39 +2127,45 @@
       <c r="D20" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="7">
-        <v>100</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8">
-        <v>100</v>
-      </c>
-      <c r="H20" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G20" s="7">
+        <v>100</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8">
+        <v>100</v>
+      </c>
+      <c r="J20" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K20" s="3">
         <v>17</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>17</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>48</v>
       </c>
@@ -2064,39 +2175,45 @@
       <c r="D21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="7">
-        <v>100</v>
-      </c>
-      <c r="F21" s="7">
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G21" s="7">
+        <v>100</v>
+      </c>
+      <c r="H21" s="7">
         <v>-0.6</v>
       </c>
-      <c r="G21" s="8">
+      <c r="I21" s="8">
         <v>99.4</v>
       </c>
-      <c r="H21" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K21" s="3">
         <v>11</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>11</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>71</v>
       </c>
@@ -2106,39 +2223,45 @@
       <c r="D22" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G22" s="7">
         <v>98.5</v>
       </c>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8">
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="8">
         <v>98.5</v>
       </c>
-      <c r="H22" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="J22" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K22" s="3">
         <v>47</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>41</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>5</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>1</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q22" s="3"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>73</v>
       </c>
@@ -2148,39 +2271,45 @@
       <c r="D23" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G23" s="7">
         <v>97.312000000000012</v>
       </c>
-      <c r="F23" s="7">
+      <c r="H23" s="7">
         <v>-0.3</v>
       </c>
-      <c r="G23" s="8">
+      <c r="I23" s="8">
         <v>97.012000000000015</v>
       </c>
-      <c r="H23" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K23" s="3">
         <v>43</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>41</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
-        <v>2</v>
-      </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="3"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>75</v>
       </c>
@@ -2190,39 +2319,45 @@
       <c r="D24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="7">
-        <v>100</v>
-      </c>
-      <c r="F24" s="7">
-        <v>0</v>
-      </c>
-      <c r="G24" s="8">
-        <v>100</v>
-      </c>
-      <c r="H24" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G24" s="7">
+        <v>100</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="8">
+        <v>100</v>
+      </c>
+      <c r="J24" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K24" s="3">
         <v>27</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>27</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>77</v>
       </c>
@@ -2232,41 +2367,47 @@
       <c r="D25" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="7">
-        <v>100</v>
-      </c>
-      <c r="F25" s="7">
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G25" s="7">
+        <v>100</v>
+      </c>
+      <c r="H25" s="7">
         <v>6</v>
       </c>
-      <c r="G25" s="8">
+      <c r="I25" s="8">
         <v>106</v>
       </c>
-      <c r="H25" s="8">
+      <c r="J25" s="8">
         <v>1.3</v>
       </c>
-      <c r="I25" s="3">
+      <c r="K25" s="3">
         <v>32</v>
       </c>
-      <c r="J25" s="3">
-        <v>0</v>
-      </c>
-      <c r="K25" s="3">
-        <v>0</v>
-      </c>
       <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
         <v>32</v>
       </c>
-      <c r="M25" s="3">
-        <v>0</v>
-      </c>
-      <c r="N25" s="3">
-        <v>0</v>
-      </c>
-      <c r="O25" s="3" t="s">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>79</v>
       </c>
@@ -2276,39 +2417,45 @@
       <c r="D26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="7">
-        <v>100</v>
-      </c>
-      <c r="F26" s="7">
-        <v>0</v>
-      </c>
-      <c r="G26" s="8">
-        <v>100</v>
-      </c>
-      <c r="H26" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G26" s="7">
+        <v>100</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="8">
+        <v>100</v>
+      </c>
+      <c r="J26" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K26" s="3">
         <v>11</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>11</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>81</v>
       </c>
@@ -2318,41 +2465,47 @@
       <c r="D27" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="2">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G27" s="7">
         <v>97.181818181818187</v>
       </c>
-      <c r="F27" s="7">
+      <c r="H27" s="7">
         <v>2.7</v>
       </c>
-      <c r="G27" s="8">
+      <c r="I27" s="8">
         <v>99.88181818181819</v>
       </c>
-      <c r="H27" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K27" s="3">
         <v>78</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>65</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>8</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>4</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="Q27" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>83</v>
       </c>
@@ -2362,41 +2515,47 @@
       <c r="D28" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="7">
-        <v>100</v>
-      </c>
-      <c r="F28" s="7">
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G28" s="7">
+        <v>100</v>
+      </c>
+      <c r="H28" s="7">
         <v>2.6999999999999997</v>
       </c>
-      <c r="G28" s="8">
+      <c r="I28" s="8">
         <v>102.7</v>
       </c>
-      <c r="H28" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I28" s="3">
+      <c r="J28" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K28" s="3">
         <v>27</v>
       </c>
-      <c r="J28" s="3">
-        <v>0</v>
-      </c>
-      <c r="K28" s="3">
-        <v>0</v>
-      </c>
       <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
         <v>27</v>
       </c>
-      <c r="M28" s="3">
-        <v>0</v>
-      </c>
-      <c r="N28" s="3">
-        <v>0</v>
-      </c>
-      <c r="O28" s="3" t="s">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>85</v>
       </c>
@@ -2406,41 +2565,47 @@
       <c r="D29" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="7">
-        <v>100</v>
-      </c>
-      <c r="F29" s="7">
+      <c r="E29" s="2">
+        <v>2</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G29" s="7">
+        <v>100</v>
+      </c>
+      <c r="H29" s="7">
         <v>2.7</v>
       </c>
-      <c r="G29" s="8">
+      <c r="I29" s="8">
         <v>102.7</v>
       </c>
-      <c r="H29" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I29" s="3">
+      <c r="J29" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K29" s="3">
         <v>75</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>75</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>87</v>
       </c>
@@ -2450,41 +2615,47 @@
       <c r="D30" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E30" s="7">
-        <v>100</v>
-      </c>
-      <c r="F30" s="7">
+      <c r="E30" s="2">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G30" s="7">
+        <v>100</v>
+      </c>
+      <c r="H30" s="7">
         <v>3</v>
       </c>
-      <c r="G30" s="8">
+      <c r="I30" s="8">
         <v>103</v>
       </c>
-      <c r="H30" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I30" s="3">
+      <c r="J30" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K30" s="3">
         <v>28</v>
       </c>
-      <c r="J30" s="3">
-        <v>0</v>
-      </c>
-      <c r="K30" s="3">
-        <v>0</v>
-      </c>
       <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
         <v>28</v>
       </c>
-      <c r="M30" s="3">
-        <v>0</v>
-      </c>
-      <c r="N30" s="3">
-        <v>0</v>
-      </c>
-      <c r="O30" s="3" t="s">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>89</v>
       </c>
@@ -2494,41 +2665,47 @@
       <c r="D31" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="2">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G31" s="7">
         <v>97.407407407407405</v>
       </c>
-      <c r="F31" s="7">
+      <c r="H31" s="7">
         <v>3</v>
       </c>
-      <c r="G31" s="8">
+      <c r="I31" s="8">
         <v>100.4074074074074</v>
       </c>
-      <c r="H31" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I31" s="3">
+      <c r="J31" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K31" s="3">
         <v>58</v>
       </c>
-      <c r="J31" s="3">
-        <v>0</v>
-      </c>
-      <c r="K31" s="3">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
         <v>3</v>
       </c>
-      <c r="L31" s="3">
+      <c r="N31" s="3">
         <v>50</v>
       </c>
-      <c r="M31" s="3">
-        <v>0</v>
-      </c>
-      <c r="N31" s="3">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
         <v>5</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="Q31" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>91</v>
       </c>
@@ -2538,41 +2715,47 @@
       <c r="D32" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E32" s="7">
-        <v>100</v>
-      </c>
-      <c r="F32" s="7">
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G32" s="7">
+        <v>100</v>
+      </c>
+      <c r="H32" s="7">
         <v>3</v>
       </c>
-      <c r="G32" s="8">
+      <c r="I32" s="8">
         <v>103</v>
       </c>
-      <c r="H32" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K32" s="3">
         <v>30</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>6</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>24</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3" t="s">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>93</v>
       </c>
@@ -2582,39 +2765,45 @@
       <c r="D33" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="2">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G33" s="7">
         <v>97.714285714285708</v>
       </c>
-      <c r="F33" s="7">
-        <v>0</v>
-      </c>
-      <c r="G33" s="8">
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="8">
         <v>97.714285714285708</v>
       </c>
-      <c r="H33" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K33" s="3">
         <v>33</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>31</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q33" s="3"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>95</v>
       </c>
@@ -2624,39 +2813,45 @@
       <c r="D34" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E34" s="7">
-        <v>100</v>
-      </c>
-      <c r="F34" s="7">
-        <v>0</v>
-      </c>
-      <c r="G34" s="8">
-        <v>100</v>
-      </c>
-      <c r="H34" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I34" s="3">
+      <c r="E34" s="2">
+        <v>2</v>
+      </c>
+      <c r="F34" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G34" s="7">
+        <v>100</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="8">
+        <v>100</v>
+      </c>
+      <c r="J34" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K34" s="3">
         <v>19</v>
       </c>
-      <c r="J34" s="3">
-        <v>0</v>
-      </c>
-      <c r="K34" s="3">
-        <v>0</v>
-      </c>
       <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
         <v>19</v>
       </c>
-      <c r="M34" s="3">
-        <v>0</v>
-      </c>
-      <c r="N34" s="3">
-        <v>0</v>
-      </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>98</v>
       </c>
@@ -2666,41 +2861,47 @@
       <c r="D35" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E35" s="7">
-        <v>100</v>
-      </c>
-      <c r="F35" s="7">
+      <c r="E35" s="2">
+        <v>2</v>
+      </c>
+      <c r="F35" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G35" s="7">
+        <v>100</v>
+      </c>
+      <c r="H35" s="7">
         <v>3</v>
       </c>
-      <c r="G35" s="8">
+      <c r="I35" s="8">
         <v>103</v>
       </c>
-      <c r="H35" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K35" s="3">
         <v>50</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>50</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3" t="s">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>100</v>
       </c>
@@ -2710,39 +2911,45 @@
       <c r="D36" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E36" s="7">
-        <v>100</v>
-      </c>
-      <c r="F36" s="7">
-        <v>0</v>
-      </c>
-      <c r="G36" s="8">
-        <v>100</v>
-      </c>
-      <c r="H36" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I36" s="3">
+      <c r="E36" s="2">
+        <v>2</v>
+      </c>
+      <c r="F36" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G36" s="7">
+        <v>100</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0</v>
+      </c>
+      <c r="I36" s="8">
+        <v>100</v>
+      </c>
+      <c r="J36" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K36" s="3">
         <v>95</v>
       </c>
-      <c r="J36" s="3">
-        <v>0</v>
-      </c>
-      <c r="K36" s="3">
-        <v>0</v>
-      </c>
       <c r="L36" s="3">
+        <v>0</v>
+      </c>
+      <c r="M36" s="3">
+        <v>0</v>
+      </c>
+      <c r="N36" s="3">
         <v>95</v>
       </c>
-      <c r="M36" s="3">
-        <v>0</v>
-      </c>
-      <c r="N36" s="3">
-        <v>0</v>
-      </c>
-      <c r="O36" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O36" s="3">
+        <v>0</v>
+      </c>
+      <c r="P36" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="3"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>102</v>
       </c>
@@ -2752,39 +2959,45 @@
       <c r="D37" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E37" s="7">
-        <v>100</v>
-      </c>
-      <c r="F37" s="7">
+      <c r="E37" s="2">
+        <v>2</v>
+      </c>
+      <c r="F37" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G37" s="7">
+        <v>100</v>
+      </c>
+      <c r="H37" s="7">
         <v>-0.3</v>
       </c>
-      <c r="G37" s="8">
+      <c r="I37" s="8">
         <v>99.7</v>
       </c>
-      <c r="H37" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I37" s="3">
+      <c r="J37" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K37" s="3">
         <v>52</v>
       </c>
-      <c r="J37" s="3">
-        <v>0</v>
-      </c>
-      <c r="K37" s="3">
-        <v>0</v>
-      </c>
       <c r="L37" s="3">
+        <v>0</v>
+      </c>
+      <c r="M37" s="3">
+        <v>0</v>
+      </c>
+      <c r="N37" s="3">
         <v>52</v>
       </c>
-      <c r="M37" s="3">
-        <v>0</v>
-      </c>
-      <c r="N37" s="3">
-        <v>0</v>
-      </c>
-      <c r="O37" s="3"/>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O37" s="3">
+        <v>0</v>
+      </c>
+      <c r="P37" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="3"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>104</v>
       </c>
@@ -2794,41 +3007,47 @@
       <c r="D38" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E38" s="7">
-        <v>100</v>
-      </c>
-      <c r="F38" s="7">
+      <c r="E38" s="2">
+        <v>2</v>
+      </c>
+      <c r="F38" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G38" s="7">
+        <v>100</v>
+      </c>
+      <c r="H38" s="7">
         <v>3</v>
       </c>
-      <c r="G38" s="8">
+      <c r="I38" s="8">
         <v>103</v>
       </c>
-      <c r="H38" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I38" s="3">
+      <c r="J38" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K38" s="3">
         <v>35</v>
       </c>
-      <c r="J38" s="3">
-        <v>0</v>
-      </c>
-      <c r="K38" s="3">
-        <v>0</v>
-      </c>
       <c r="L38" s="3">
+        <v>0</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0</v>
+      </c>
+      <c r="N38" s="3">
         <v>35</v>
       </c>
-      <c r="M38" s="3">
-        <v>0</v>
-      </c>
-      <c r="N38" s="3">
-        <v>0</v>
-      </c>
-      <c r="O38" s="3" t="s">
+      <c r="O38" s="3">
+        <v>0</v>
+      </c>
+      <c r="P38" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>106</v>
       </c>
@@ -2838,39 +3057,45 @@
       <c r="D39" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E39" s="7">
-        <v>100</v>
-      </c>
-      <c r="F39" s="7">
+      <c r="E39" s="2">
+        <v>2</v>
+      </c>
+      <c r="F39" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G39" s="7">
+        <v>100</v>
+      </c>
+      <c r="H39" s="7">
         <v>-0.6</v>
       </c>
-      <c r="G39" s="8">
+      <c r="I39" s="8">
         <v>99.4</v>
       </c>
-      <c r="H39" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I39" s="3">
+      <c r="J39" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K39" s="3">
         <v>35</v>
       </c>
-      <c r="J39" s="3">
-        <v>0</v>
-      </c>
-      <c r="K39" s="3">
-        <v>0</v>
-      </c>
       <c r="L39" s="3">
+        <v>0</v>
+      </c>
+      <c r="M39" s="3">
+        <v>0</v>
+      </c>
+      <c r="N39" s="3">
         <v>35</v>
       </c>
-      <c r="M39" s="3">
-        <v>0</v>
-      </c>
-      <c r="N39" s="3">
-        <v>0</v>
-      </c>
-      <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O39" s="3">
+        <v>0</v>
+      </c>
+      <c r="P39" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>108</v>
       </c>
@@ -2880,41 +3105,47 @@
       <c r="D40" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E40" s="7">
-        <v>100</v>
-      </c>
-      <c r="F40" s="7">
+      <c r="E40" s="2">
+        <v>2</v>
+      </c>
+      <c r="F40" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G40" s="7">
+        <v>100</v>
+      </c>
+      <c r="H40" s="7">
         <v>3</v>
       </c>
-      <c r="G40" s="8">
+      <c r="I40" s="8">
         <v>103</v>
       </c>
-      <c r="H40" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I40" s="3">
+      <c r="J40" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K40" s="3">
         <v>75</v>
       </c>
-      <c r="J40" s="3">
-        <v>0</v>
-      </c>
-      <c r="K40" s="3">
-        <v>0</v>
-      </c>
       <c r="L40" s="3">
+        <v>0</v>
+      </c>
+      <c r="M40" s="3">
+        <v>0</v>
+      </c>
+      <c r="N40" s="3">
         <v>75</v>
       </c>
-      <c r="M40" s="3">
-        <v>0</v>
-      </c>
-      <c r="N40" s="3">
-        <v>0</v>
-      </c>
-      <c r="O40" s="3" t="s">
+      <c r="O40" s="3">
+        <v>0</v>
+      </c>
+      <c r="P40" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>110</v>
       </c>
@@ -2924,41 +3155,47 @@
       <c r="D41" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E41" s="7">
-        <v>100</v>
-      </c>
-      <c r="F41" s="7">
+      <c r="E41" s="2">
+        <v>2</v>
+      </c>
+      <c r="F41" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G41" s="7">
+        <v>100</v>
+      </c>
+      <c r="H41" s="7">
         <v>6</v>
       </c>
-      <c r="G41" s="8">
+      <c r="I41" s="8">
         <v>106</v>
       </c>
-      <c r="H41" s="8">
+      <c r="J41" s="8">
         <v>1.3</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>61</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>61</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3" t="s">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>112</v>
       </c>
@@ -2968,41 +3205,47 @@
       <c r="D42" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="7">
-        <v>100</v>
-      </c>
-      <c r="F42" s="7">
+      <c r="E42" s="2">
+        <v>2</v>
+      </c>
+      <c r="F42" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G42" s="7">
+        <v>100</v>
+      </c>
+      <c r="H42" s="7">
         <v>9.3000000000000007</v>
       </c>
-      <c r="G42" s="8">
+      <c r="I42" s="8">
         <v>109.3</v>
       </c>
-      <c r="H42" s="8">
+      <c r="J42" s="8">
         <v>1.3</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>95</v>
       </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>95</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3" t="s">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>114</v>
       </c>
@@ -3012,39 +3255,45 @@
       <c r="D43" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E43" s="7">
-        <v>100</v>
-      </c>
-      <c r="F43" s="7">
-        <v>0</v>
-      </c>
-      <c r="G43" s="8">
-        <v>100</v>
-      </c>
-      <c r="H43" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="E43" s="2">
+        <v>2</v>
+      </c>
+      <c r="F43" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G43" s="7">
+        <v>100</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0</v>
+      </c>
+      <c r="I43" s="8">
+        <v>100</v>
+      </c>
+      <c r="J43" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K43" s="3">
         <v>63</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>63</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>116</v>
       </c>
@@ -3054,39 +3303,45 @@
       <c r="D44" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="2">
+        <v>2</v>
+      </c>
+      <c r="F44" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G44" s="7">
         <v>100.00000000000001</v>
       </c>
-      <c r="F44" s="7">
+      <c r="H44" s="7">
         <v>-0.89999999999999991</v>
       </c>
-      <c r="G44" s="8">
+      <c r="I44" s="8">
         <v>99.100000000000009</v>
       </c>
-      <c r="H44" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="J44" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K44" s="3">
         <v>37</v>
       </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
       <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
         <v>37</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>118</v>
       </c>
@@ -3096,41 +3351,47 @@
       <c r="D45" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E45" s="7">
-        <v>100</v>
-      </c>
-      <c r="F45" s="7">
+      <c r="E45" s="2">
+        <v>2</v>
+      </c>
+      <c r="F45" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G45" s="7">
+        <v>100</v>
+      </c>
+      <c r="H45" s="7">
         <v>8</v>
       </c>
-      <c r="G45" s="8">
+      <c r="I45" s="8">
         <v>108</v>
       </c>
-      <c r="H45" s="8">
+      <c r="J45" s="8">
         <v>1.3</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>86</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>86</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3" t="s">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
         <v>120</v>
       </c>
@@ -3140,41 +3401,47 @@
       <c r="D46" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="2">
+        <v>2</v>
+      </c>
+      <c r="F46" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G46" s="7">
         <v>100.00000000000001</v>
       </c>
-      <c r="F46" s="7">
+      <c r="H46" s="7">
         <v>4</v>
       </c>
-      <c r="G46" s="8">
+      <c r="I46" s="8">
         <v>104.00000000000001</v>
       </c>
-      <c r="H46" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I46" s="3">
+      <c r="J46" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K46" s="3">
         <v>78</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>78</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3" t="s">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
         <v>122</v>
       </c>
@@ -3184,41 +3451,47 @@
       <c r="D47" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="2">
+        <v>2</v>
+      </c>
+      <c r="F47" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G47" s="7">
         <v>97.219858156028366</v>
       </c>
-      <c r="F47" s="7">
+      <c r="H47" s="7">
         <v>5.7</v>
       </c>
-      <c r="G47" s="8">
+      <c r="I47" s="8">
         <v>102.91985815602837</v>
       </c>
-      <c r="H47" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="J47" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K47" s="3">
         <v>44</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>43</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
         <v>1</v>
       </c>
-      <c r="O47" s="3" t="s">
+      <c r="Q47" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
         <v>125</v>
       </c>
@@ -3228,39 +3501,45 @@
       <c r="D48" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="2">
+        <v>2</v>
+      </c>
+      <c r="F48" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G48" s="7">
         <v>99.339449541284409</v>
       </c>
-      <c r="F48" s="7">
-        <v>0</v>
-      </c>
-      <c r="G48" s="8">
+      <c r="H48" s="7">
+        <v>0</v>
+      </c>
+      <c r="I48" s="8">
         <v>99.339449541284409</v>
       </c>
-      <c r="H48" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="J48" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K48" s="3">
         <v>37</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
       <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
         <v>36</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3"/>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>127</v>
       </c>
@@ -3270,39 +3549,45 @@
       <c r="D49" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="2">
+        <v>2</v>
+      </c>
+      <c r="F49" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G49" s="7">
         <v>98.8</v>
       </c>
-      <c r="F49" s="7">
-        <v>0</v>
-      </c>
-      <c r="G49" s="8">
+      <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="8">
         <v>98.8</v>
       </c>
-      <c r="H49" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I49" s="3">
+      <c r="J49" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K49" s="3">
         <v>32</v>
       </c>
-      <c r="J49" s="3">
-        <v>0</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
       <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
         <v>31</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3"/>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>129</v>
       </c>
@@ -3312,39 +3597,45 @@
       <c r="D50" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E50" s="7">
-        <v>100</v>
-      </c>
-      <c r="F50" s="7">
-        <v>0</v>
-      </c>
-      <c r="G50" s="8">
-        <v>100</v>
-      </c>
-      <c r="H50" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I50" s="3">
+      <c r="E50" s="2">
+        <v>2</v>
+      </c>
+      <c r="F50" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G50" s="7">
+        <v>100</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+      <c r="I50" s="8">
+        <v>100</v>
+      </c>
+      <c r="J50" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K50" s="3">
         <v>49</v>
       </c>
-      <c r="J50" s="3">
-        <v>0</v>
-      </c>
-      <c r="K50" s="3">
-        <v>0</v>
-      </c>
       <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
         <v>49</v>
       </c>
-      <c r="M50" s="3">
-        <v>0</v>
-      </c>
-      <c r="N50" s="3">
-        <v>0</v>
-      </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>131</v>
       </c>
@@ -3354,39 +3645,45 @@
       <c r="D51" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="2">
+        <v>2</v>
+      </c>
+      <c r="F51" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G51" s="7">
         <v>96.181818181818187</v>
       </c>
-      <c r="F51" s="7">
-        <v>0</v>
-      </c>
-      <c r="G51" s="8">
+      <c r="H51" s="7">
+        <v>0</v>
+      </c>
+      <c r="I51" s="8">
         <v>96.181818181818187</v>
       </c>
-      <c r="H51" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I51" s="3">
+      <c r="J51" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K51" s="3">
         <v>62</v>
       </c>
-      <c r="J51" s="3">
-        <v>0</v>
-      </c>
-      <c r="K51" s="3">
-        <v>0</v>
-      </c>
       <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
         <v>54</v>
       </c>
-      <c r="M51" s="3">
+      <c r="O51" s="3">
         <v>8</v>
       </c>
-      <c r="N51" s="3">
-        <v>0</v>
-      </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>134</v>
       </c>
@@ -3396,39 +3693,45 @@
       <c r="D52" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="2">
+        <v>2</v>
+      </c>
+      <c r="F52" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G52" s="7">
         <v>98.634408602150529</v>
       </c>
-      <c r="F52" s="7">
+      <c r="H52" s="7">
         <v>-0.6</v>
       </c>
-      <c r="G52" s="8">
+      <c r="I52" s="8">
         <v>98.034408602150535</v>
       </c>
-      <c r="H52" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="J52" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K52" s="3">
         <v>38</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>36</v>
       </c>
-      <c r="M52" s="3">
-        <v>2</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="6"/>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O52" s="3">
+        <v>2</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="6"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
         <v>136</v>
       </c>
@@ -3438,39 +3741,45 @@
       <c r="D53" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E53" s="7">
-        <v>100</v>
-      </c>
-      <c r="F53" s="7">
-        <v>0</v>
-      </c>
-      <c r="G53" s="8">
-        <v>100</v>
-      </c>
-      <c r="H53" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I53" s="3">
+      <c r="E53" s="2">
+        <v>2</v>
+      </c>
+      <c r="F53" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G53" s="7">
+        <v>100</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0</v>
+      </c>
+      <c r="I53" s="8">
+        <v>100</v>
+      </c>
+      <c r="J53" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K53" s="3">
         <v>21</v>
       </c>
-      <c r="J53" s="3">
-        <v>0</v>
-      </c>
-      <c r="K53" s="3">
-        <v>0</v>
-      </c>
       <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
         <v>21</v>
       </c>
-      <c r="M53" s="3">
-        <v>0</v>
-      </c>
-      <c r="N53" s="3">
-        <v>0</v>
-      </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
         <v>138</v>
       </c>
@@ -3480,39 +3789,45 @@
       <c r="D54" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E54" s="7">
-        <v>100</v>
-      </c>
-      <c r="F54" s="7">
-        <v>0</v>
-      </c>
-      <c r="G54" s="8">
-        <v>100</v>
-      </c>
-      <c r="H54" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="E54" s="2">
+        <v>2</v>
+      </c>
+      <c r="F54" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G54" s="7">
+        <v>100</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0</v>
+      </c>
+      <c r="I54" s="8">
+        <v>100</v>
+      </c>
+      <c r="J54" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K54" s="3">
         <v>62</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
         <v>62</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
         <v>140</v>
       </c>
@@ -3522,39 +3837,45 @@
       <c r="D55" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E55" s="7">
-        <v>100</v>
-      </c>
-      <c r="F55" s="7">
-        <v>0</v>
-      </c>
-      <c r="G55" s="8">
-        <v>100</v>
-      </c>
-      <c r="H55" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I55" s="3">
+      <c r="E55" s="2">
+        <v>2</v>
+      </c>
+      <c r="F55" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G55" s="7">
+        <v>100</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0</v>
+      </c>
+      <c r="I55" s="8">
+        <v>100</v>
+      </c>
+      <c r="J55" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K55" s="3">
         <v>42</v>
       </c>
-      <c r="J55" s="3">
-        <v>0</v>
-      </c>
-      <c r="K55" s="3">
-        <v>0</v>
-      </c>
       <c r="L55" s="3">
+        <v>0</v>
+      </c>
+      <c r="M55" s="3">
+        <v>0</v>
+      </c>
+      <c r="N55" s="3">
         <v>42</v>
       </c>
-      <c r="M55" s="3">
-        <v>0</v>
-      </c>
-      <c r="N55" s="3">
-        <v>0</v>
-      </c>
-      <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O55" s="3">
+        <v>0</v>
+      </c>
+      <c r="P55" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
         <v>142</v>
       </c>
@@ -3564,39 +3885,45 @@
       <c r="D56" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="2">
+        <v>2</v>
+      </c>
+      <c r="F56" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G56" s="7">
         <v>98.73684210526315</v>
       </c>
-      <c r="F56" s="7">
-        <v>0</v>
-      </c>
-      <c r="G56" s="8">
+      <c r="H56" s="7">
+        <v>0</v>
+      </c>
+      <c r="I56" s="8">
         <v>98.73684210526315</v>
       </c>
-      <c r="H56" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I56" s="3">
+      <c r="J56" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K56" s="3">
         <v>22</v>
       </c>
-      <c r="J56" s="3">
-        <v>0</v>
-      </c>
-      <c r="K56" s="3">
-        <v>0</v>
-      </c>
       <c r="L56" s="3">
+        <v>0</v>
+      </c>
+      <c r="M56" s="3">
+        <v>0</v>
+      </c>
+      <c r="N56" s="3">
         <v>21</v>
       </c>
-      <c r="M56" s="3">
+      <c r="O56" s="3">
         <v>1</v>
       </c>
-      <c r="N56" s="3">
-        <v>0</v>
-      </c>
-      <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P56" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
         <v>144</v>
       </c>
@@ -3606,39 +3933,45 @@
       <c r="D57" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E57" s="7">
-        <v>100</v>
-      </c>
-      <c r="F57" s="7">
-        <v>0</v>
-      </c>
-      <c r="G57" s="8">
-        <v>100</v>
-      </c>
-      <c r="H57" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="E57" s="2">
+        <v>2</v>
+      </c>
+      <c r="F57" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G57" s="7">
+        <v>100</v>
+      </c>
+      <c r="H57" s="7">
+        <v>0</v>
+      </c>
+      <c r="I57" s="8">
+        <v>100</v>
+      </c>
+      <c r="J57" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K57" s="3">
         <v>32</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>32</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3"/>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
         <v>146</v>
       </c>
@@ -3648,39 +3981,45 @@
       <c r="D58" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E58" s="7">
-        <v>100</v>
-      </c>
-      <c r="F58" s="7">
-        <v>0</v>
-      </c>
-      <c r="G58" s="8">
-        <v>100</v>
-      </c>
-      <c r="H58" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="E58" s="2">
+        <v>2</v>
+      </c>
+      <c r="F58" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G58" s="7">
+        <v>100</v>
+      </c>
+      <c r="H58" s="7">
+        <v>0</v>
+      </c>
+      <c r="I58" s="8">
+        <v>100</v>
+      </c>
+      <c r="J58" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K58" s="3">
         <v>40</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>40</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3"/>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
         <v>148</v>
       </c>
@@ -3690,39 +4029,45 @@
       <c r="D59" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="2">
+        <v>2</v>
+      </c>
+      <c r="F59" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G59" s="7">
         <v>96.396624472573833</v>
       </c>
-      <c r="F59" s="7">
-        <v>0</v>
-      </c>
-      <c r="G59" s="8">
+      <c r="H59" s="7">
+        <v>0</v>
+      </c>
+      <c r="I59" s="8">
         <v>96.396624472573833</v>
       </c>
-      <c r="H59" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="J59" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K59" s="3">
         <v>74</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
       <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
         <v>70</v>
       </c>
-      <c r="M59" s="3">
-        <v>2</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
+        <v>2</v>
+      </c>
+      <c r="P59" s="3">
         <v>1</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q59" s="3"/>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
         <v>233</v>
       </c>
@@ -3732,39 +4077,45 @@
       <c r="D60" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E60" s="7">
-        <v>100</v>
-      </c>
-      <c r="F60" s="7">
-        <v>0</v>
-      </c>
-      <c r="G60" s="8">
-        <v>100</v>
-      </c>
-      <c r="H60" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I60" s="3">
+      <c r="E60" s="2">
+        <v>2</v>
+      </c>
+      <c r="F60" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G60" s="7">
+        <v>100</v>
+      </c>
+      <c r="H60" s="7">
+        <v>0</v>
+      </c>
+      <c r="I60" s="8">
+        <v>100</v>
+      </c>
+      <c r="J60" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K60" s="3">
         <v>55</v>
       </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
       <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
         <v>55</v>
       </c>
-      <c r="M60" s="3">
-        <v>0</v>
-      </c>
-      <c r="N60" s="3">
-        <v>0</v>
-      </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3"/>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
         <v>235</v>
       </c>
@@ -3774,41 +4125,47 @@
       <c r="D61" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="2">
+        <v>2</v>
+      </c>
+      <c r="F61" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G61" s="7">
         <v>99.357142857142861</v>
       </c>
-      <c r="F61" s="7">
+      <c r="H61" s="7">
         <v>3</v>
       </c>
-      <c r="G61" s="8">
+      <c r="I61" s="8">
         <v>102.35714285714286</v>
       </c>
-      <c r="H61" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I61" s="3">
+      <c r="J61" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K61" s="3">
         <v>43</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>42</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3" t="s">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
         <v>150</v>
       </c>
@@ -3818,39 +4175,45 @@
       <c r="D62" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E62" s="7">
-        <v>100</v>
-      </c>
-      <c r="F62" s="7">
-        <v>0</v>
-      </c>
-      <c r="G62" s="8">
-        <v>100</v>
-      </c>
-      <c r="H62" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="E62" s="2">
+        <v>2</v>
+      </c>
+      <c r="F62" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G62" s="7">
+        <v>100</v>
+      </c>
+      <c r="H62" s="7">
+        <v>0</v>
+      </c>
+      <c r="I62" s="8">
+        <v>100</v>
+      </c>
+      <c r="J62" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K62" s="3">
         <v>55</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>55</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3"/>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
         <v>153</v>
       </c>
@@ -3860,39 +4223,45 @@
       <c r="D63" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E63" s="7">
-        <v>100</v>
-      </c>
-      <c r="F63" s="7">
-        <v>0</v>
-      </c>
-      <c r="G63" s="8">
-        <v>100</v>
-      </c>
-      <c r="H63" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I63" s="3">
+      <c r="E63" s="2">
+        <v>2</v>
+      </c>
+      <c r="F63" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G63" s="7">
+        <v>100</v>
+      </c>
+      <c r="H63" s="7">
+        <v>0</v>
+      </c>
+      <c r="I63" s="8">
+        <v>100</v>
+      </c>
+      <c r="J63" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K63" s="3">
         <v>23</v>
       </c>
-      <c r="J63" s="3">
-        <v>0</v>
-      </c>
-      <c r="K63" s="3">
-        <v>0</v>
-      </c>
       <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
         <v>23</v>
       </c>
-      <c r="M63" s="3">
-        <v>0</v>
-      </c>
-      <c r="N63" s="3">
-        <v>0</v>
-      </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3"/>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>155</v>
       </c>
@@ -3902,41 +4271,47 @@
       <c r="D64" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E64" s="7">
-        <v>100</v>
-      </c>
-      <c r="F64" s="7">
+      <c r="E64" s="2">
+        <v>2</v>
+      </c>
+      <c r="F64" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G64" s="7">
+        <v>100</v>
+      </c>
+      <c r="H64" s="7">
         <v>-0.89999999999999991</v>
       </c>
-      <c r="G64" s="8">
+      <c r="I64" s="8">
         <v>99.1</v>
       </c>
-      <c r="H64" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I64" s="3">
+      <c r="J64" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K64" s="3">
         <v>34</v>
       </c>
-      <c r="J64" s="3">
-        <v>0</v>
-      </c>
-      <c r="K64" s="3">
-        <v>0</v>
-      </c>
       <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
         <v>34</v>
       </c>
-      <c r="M64" s="3">
-        <v>0</v>
-      </c>
-      <c r="N64" s="3">
-        <v>0</v>
-      </c>
-      <c r="O64" s="3" t="s">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
         <v>157</v>
       </c>
@@ -3946,39 +4321,45 @@
       <c r="D65" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E65" s="7">
-        <v>100</v>
-      </c>
-      <c r="F65" s="7">
+      <c r="E65" s="2">
+        <v>2</v>
+      </c>
+      <c r="F65" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G65" s="7">
+        <v>100</v>
+      </c>
+      <c r="H65" s="7">
         <v>0.3</v>
       </c>
-      <c r="G65" s="8">
+      <c r="I65" s="8">
         <v>100.3</v>
       </c>
-      <c r="H65" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I65" s="3">
+      <c r="J65" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K65" s="3">
         <v>29</v>
       </c>
-      <c r="J65" s="3">
-        <v>0</v>
-      </c>
-      <c r="K65" s="3">
-        <v>0</v>
-      </c>
       <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
         <v>29</v>
       </c>
-      <c r="M65" s="3">
-        <v>0</v>
-      </c>
-      <c r="N65" s="3">
-        <v>0</v>
-      </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3"/>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
         <v>238</v>
       </c>
@@ -3988,39 +4369,45 @@
       <c r="D66" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E66" s="7">
-        <v>100</v>
-      </c>
-      <c r="F66" s="7">
+      <c r="E66" s="2">
+        <v>2</v>
+      </c>
+      <c r="F66" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G66" s="7">
+        <v>100</v>
+      </c>
+      <c r="H66" s="7">
         <v>0.3</v>
       </c>
-      <c r="G66" s="8">
+      <c r="I66" s="8">
         <v>100.3</v>
       </c>
-      <c r="H66" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I66" s="3">
+      <c r="J66" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K66" s="3">
         <v>14</v>
       </c>
-      <c r="J66" s="3">
-        <v>0</v>
-      </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
       <c r="L66" s="3">
+        <v>0</v>
+      </c>
+      <c r="M66" s="3">
+        <v>0</v>
+      </c>
+      <c r="N66" s="3">
         <v>14</v>
       </c>
-      <c r="M66" s="3">
-        <v>0</v>
-      </c>
-      <c r="N66" s="3">
-        <v>0</v>
-      </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="3"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
         <v>159</v>
       </c>
@@ -4030,41 +4417,47 @@
       <c r="D67" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E67" s="7">
-        <v>100</v>
-      </c>
-      <c r="F67" s="7">
+      <c r="E67" s="2">
+        <v>2</v>
+      </c>
+      <c r="F67" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G67" s="7">
+        <v>100</v>
+      </c>
+      <c r="H67" s="7">
         <v>3.9</v>
       </c>
-      <c r="G67" s="8">
+      <c r="I67" s="8">
         <v>103.9</v>
       </c>
-      <c r="H67" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I67" s="3">
+      <c r="J67" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K67" s="3">
         <v>29</v>
       </c>
-      <c r="J67" s="3">
-        <v>0</v>
-      </c>
-      <c r="K67" s="3">
-        <v>0</v>
-      </c>
       <c r="L67" s="3">
+        <v>0</v>
+      </c>
+      <c r="M67" s="3">
+        <v>0</v>
+      </c>
+      <c r="N67" s="3">
         <v>29</v>
       </c>
-      <c r="M67" s="3">
-        <v>0</v>
-      </c>
-      <c r="N67" s="3">
-        <v>0</v>
-      </c>
-      <c r="O67" s="3" t="s">
+      <c r="O67" s="3">
+        <v>0</v>
+      </c>
+      <c r="P67" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
         <v>162</v>
       </c>
@@ -4074,41 +4467,47 @@
       <c r="D68" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E68" s="7">
-        <v>100</v>
-      </c>
-      <c r="F68" s="7">
+      <c r="E68" s="2">
+        <v>2</v>
+      </c>
+      <c r="F68" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G68" s="7">
+        <v>100</v>
+      </c>
+      <c r="H68" s="7">
         <v>5.7</v>
       </c>
-      <c r="G68" s="8">
+      <c r="I68" s="8">
         <v>105.7</v>
       </c>
-      <c r="H68" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I68" s="3">
+      <c r="J68" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K68" s="3">
         <v>52</v>
       </c>
-      <c r="J68" s="3">
-        <v>0</v>
-      </c>
-      <c r="K68" s="3">
-        <v>0</v>
-      </c>
       <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
         <v>52</v>
       </c>
-      <c r="M68" s="3">
-        <v>0</v>
-      </c>
-      <c r="N68" s="3">
-        <v>0</v>
-      </c>
-      <c r="O68" s="3" t="s">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="s">
         <v>164</v>
       </c>
@@ -4118,41 +4517,47 @@
       <c r="D69" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E69" s="7">
-        <v>100</v>
-      </c>
-      <c r="F69" s="7">
+      <c r="E69" s="2">
+        <v>2</v>
+      </c>
+      <c r="F69" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G69" s="7">
+        <v>100</v>
+      </c>
+      <c r="H69" s="7">
         <v>0.90000000000000036</v>
       </c>
-      <c r="G69" s="8">
+      <c r="I69" s="8">
         <v>100.9</v>
       </c>
-      <c r="H69" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I69" s="3">
+      <c r="J69" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K69" s="3">
         <v>19</v>
       </c>
-      <c r="J69" s="3">
-        <v>0</v>
-      </c>
-      <c r="K69" s="3">
-        <v>0</v>
-      </c>
       <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
         <v>19</v>
       </c>
-      <c r="M69" s="3">
-        <v>0</v>
-      </c>
-      <c r="N69" s="3">
-        <v>0</v>
-      </c>
-      <c r="O69" s="3" t="s">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
         <v>166</v>
       </c>
@@ -4162,41 +4567,47 @@
       <c r="D70" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E70" s="7">
-        <v>100</v>
-      </c>
-      <c r="F70" s="7">
+      <c r="E70" s="2">
+        <v>2</v>
+      </c>
+      <c r="F70" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G70" s="7">
+        <v>100</v>
+      </c>
+      <c r="H70" s="7">
         <v>2.7</v>
       </c>
-      <c r="G70" s="8">
+      <c r="I70" s="8">
         <v>102.7</v>
       </c>
-      <c r="H70" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I70" s="3">
+      <c r="J70" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K70" s="3">
         <v>48</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>48</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
-      <c r="O70" s="3" t="s">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
         <v>168</v>
       </c>
@@ -4206,41 +4617,47 @@
       <c r="D71" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E71" s="7">
-        <v>100</v>
-      </c>
-      <c r="F71" s="7">
+      <c r="E71" s="2">
+        <v>2</v>
+      </c>
+      <c r="F71" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G71" s="7">
+        <v>100</v>
+      </c>
+      <c r="H71" s="7">
         <v>3.3</v>
       </c>
-      <c r="G71" s="8">
+      <c r="I71" s="8">
         <v>103.3</v>
       </c>
-      <c r="H71" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I71" s="3">
+      <c r="J71" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K71" s="3">
         <v>31</v>
       </c>
-      <c r="J71" s="3">
-        <v>0</v>
-      </c>
-      <c r="K71" s="3">
-        <v>0</v>
-      </c>
       <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
         <v>31</v>
       </c>
-      <c r="M71" s="3">
-        <v>0</v>
-      </c>
-      <c r="N71" s="3">
-        <v>0</v>
-      </c>
-      <c r="O71" s="3" t="s">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
         <v>170</v>
       </c>
@@ -4250,41 +4667,47 @@
       <c r="D72" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E72" s="7">
-        <v>100</v>
-      </c>
-      <c r="F72" s="7">
+      <c r="E72" s="2">
+        <v>2</v>
+      </c>
+      <c r="F72" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G72" s="7">
+        <v>100</v>
+      </c>
+      <c r="H72" s="7">
         <v>6</v>
       </c>
-      <c r="G72" s="8">
+      <c r="I72" s="8">
         <v>106</v>
       </c>
-      <c r="H72" s="8">
+      <c r="J72" s="8">
         <v>1.3</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>60</v>
       </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
       <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3">
         <v>60</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
-      <c r="O72" s="3" t="s">
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
         <v>172</v>
       </c>
@@ -4294,41 +4717,47 @@
       <c r="D73" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E73" s="7">
-        <v>100</v>
-      </c>
-      <c r="F73" s="7">
+      <c r="E73" s="2">
+        <v>2</v>
+      </c>
+      <c r="F73" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G73" s="7">
+        <v>100</v>
+      </c>
+      <c r="H73" s="7">
         <v>6.3</v>
       </c>
-      <c r="G73" s="8">
+      <c r="I73" s="8">
         <v>106.3</v>
       </c>
-      <c r="H73" s="8">
+      <c r="J73" s="8">
         <v>1.3</v>
       </c>
-      <c r="I73" s="3">
+      <c r="K73" s="3">
         <v>49</v>
       </c>
-      <c r="J73" s="3">
-        <v>0</v>
-      </c>
-      <c r="K73" s="3">
-        <v>0</v>
-      </c>
       <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
         <v>49</v>
       </c>
-      <c r="M73" s="3">
-        <v>0</v>
-      </c>
-      <c r="N73" s="3">
-        <v>0</v>
-      </c>
-      <c r="O73" s="3" t="s">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
         <v>174</v>
       </c>
@@ -4338,41 +4767,47 @@
       <c r="D74" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E74" s="7">
-        <v>100</v>
-      </c>
-      <c r="F74" s="7">
+      <c r="E74" s="2">
+        <v>2</v>
+      </c>
+      <c r="F74" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G74" s="7">
+        <v>100</v>
+      </c>
+      <c r="H74" s="7">
         <v>3.9</v>
       </c>
-      <c r="G74" s="8">
+      <c r="I74" s="8">
         <v>103.9</v>
       </c>
-      <c r="H74" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I74" s="3">
+      <c r="J74" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K74" s="3">
         <v>42</v>
       </c>
-      <c r="J74" s="3">
-        <v>0</v>
-      </c>
-      <c r="K74" s="3">
-        <v>0</v>
-      </c>
       <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
         <v>42</v>
       </c>
-      <c r="M74" s="3">
-        <v>0</v>
-      </c>
-      <c r="N74" s="3">
-        <v>0</v>
-      </c>
-      <c r="O74" s="3" t="s">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
         <v>176</v>
       </c>
@@ -4382,41 +4817,47 @@
       <c r="D75" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E75" s="2">
+        <v>2</v>
+      </c>
+      <c r="F75" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G75" s="7">
         <v>98.444444444444429</v>
       </c>
-      <c r="F75" s="7">
+      <c r="H75" s="7">
         <v>2.1</v>
       </c>
-      <c r="G75" s="8">
+      <c r="I75" s="8">
         <v>100.54444444444442</v>
       </c>
-      <c r="H75" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I75" s="3">
+      <c r="J75" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K75" s="3">
         <v>34</v>
       </c>
-      <c r="J75" s="3">
-        <v>0</v>
-      </c>
-      <c r="K75" s="3">
-        <v>0</v>
-      </c>
       <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
         <v>32</v>
       </c>
-      <c r="M75" s="3">
-        <v>0</v>
-      </c>
-      <c r="N75" s="3">
-        <v>2</v>
-      </c>
-      <c r="O75" s="3" t="s">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q75" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
         <v>178</v>
       </c>
@@ -4426,41 +4867,47 @@
       <c r="D76" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E76" s="7">
-        <v>100</v>
-      </c>
-      <c r="F76" s="7">
+      <c r="E76" s="2">
+        <v>2</v>
+      </c>
+      <c r="F76" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G76" s="7">
+        <v>100</v>
+      </c>
+      <c r="H76" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G76" s="8">
+      <c r="I76" s="8">
         <v>105.1</v>
       </c>
-      <c r="H76" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="J76" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K76" s="3">
         <v>30</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
       <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3">
         <v>30</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-      <c r="O76" s="3" t="s">
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="s">
         <v>180</v>
       </c>
@@ -4470,41 +4917,47 @@
       <c r="D77" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E77" s="7">
-        <v>100</v>
-      </c>
-      <c r="F77" s="7">
+      <c r="E77" s="2">
+        <v>2</v>
+      </c>
+      <c r="F77" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G77" s="7">
+        <v>100</v>
+      </c>
+      <c r="H77" s="7">
         <v>3.5999999999999996</v>
       </c>
-      <c r="G77" s="8">
+      <c r="I77" s="8">
         <v>103.6</v>
       </c>
-      <c r="H77" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I77" s="3">
+      <c r="J77" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K77" s="3">
         <v>57</v>
       </c>
-      <c r="J77" s="3">
-        <v>0</v>
-      </c>
-      <c r="K77" s="3">
-        <v>0</v>
-      </c>
       <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
         <v>57</v>
       </c>
-      <c r="M77" s="3">
-        <v>0</v>
-      </c>
-      <c r="N77" s="3">
-        <v>0</v>
-      </c>
-      <c r="O77" s="3" t="s">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="s">
         <v>183</v>
       </c>
@@ -4514,41 +4967,47 @@
       <c r="D78" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E78" s="7">
-        <v>100</v>
-      </c>
-      <c r="F78" s="7">
+      <c r="E78" s="2">
+        <v>2</v>
+      </c>
+      <c r="F78" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G78" s="7">
+        <v>100</v>
+      </c>
+      <c r="H78" s="7">
         <v>3</v>
       </c>
-      <c r="G78" s="8">
+      <c r="I78" s="8">
         <v>103</v>
       </c>
-      <c r="H78" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I78" s="3">
+      <c r="J78" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K78" s="3">
         <v>52</v>
       </c>
-      <c r="J78" s="3">
-        <v>0</v>
-      </c>
-      <c r="K78" s="3">
-        <v>0</v>
-      </c>
       <c r="L78" s="3">
+        <v>0</v>
+      </c>
+      <c r="M78" s="3">
+        <v>0</v>
+      </c>
+      <c r="N78" s="3">
         <v>52</v>
       </c>
-      <c r="M78" s="3">
-        <v>0</v>
-      </c>
-      <c r="N78" s="3">
-        <v>0</v>
-      </c>
-      <c r="O78" s="3" t="s">
+      <c r="O78" s="3">
+        <v>0</v>
+      </c>
+      <c r="P78" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
         <v>185</v>
       </c>
@@ -4558,41 +5017,47 @@
       <c r="D79" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E79" s="7">
-        <v>100</v>
-      </c>
-      <c r="F79" s="7">
+      <c r="E79" s="2">
+        <v>2</v>
+      </c>
+      <c r="F79" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G79" s="7">
+        <v>100</v>
+      </c>
+      <c r="H79" s="7">
         <v>3</v>
       </c>
-      <c r="G79" s="8">
+      <c r="I79" s="8">
         <v>103</v>
       </c>
-      <c r="H79" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I79" s="3">
+      <c r="J79" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K79" s="3">
         <v>97</v>
       </c>
-      <c r="J79" s="3">
-        <v>0</v>
-      </c>
-      <c r="K79" s="3">
-        <v>0</v>
-      </c>
       <c r="L79" s="3">
+        <v>0</v>
+      </c>
+      <c r="M79" s="3">
+        <v>0</v>
+      </c>
+      <c r="N79" s="3">
         <v>97</v>
       </c>
-      <c r="M79" s="3">
-        <v>0</v>
-      </c>
-      <c r="N79" s="3">
-        <v>0</v>
-      </c>
-      <c r="O79" s="3" t="s">
+      <c r="O79" s="3">
+        <v>0</v>
+      </c>
+      <c r="P79" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B80" s="3" t="s">
         <v>187</v>
       </c>
@@ -4602,39 +5067,45 @@
       <c r="D80" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E80" s="2">
+        <v>2</v>
+      </c>
+      <c r="F80" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G80" s="7">
         <v>95.26315789473685</v>
       </c>
-      <c r="F80" s="7">
-        <v>0</v>
-      </c>
-      <c r="G80" s="8">
+      <c r="H80" s="7">
+        <v>0</v>
+      </c>
+      <c r="I80" s="8">
         <v>95.26315789473685</v>
       </c>
-      <c r="H80" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I80" s="3">
+      <c r="J80" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K80" s="3">
         <v>19</v>
       </c>
-      <c r="J80" s="3">
-        <v>0</v>
-      </c>
-      <c r="K80" s="3">
-        <v>0</v>
-      </c>
       <c r="L80" s="3">
+        <v>0</v>
+      </c>
+      <c r="M80" s="3">
+        <v>0</v>
+      </c>
+      <c r="N80" s="3">
         <v>16</v>
       </c>
-      <c r="M80" s="3">
+      <c r="O80" s="3">
         <v>3</v>
       </c>
-      <c r="N80" s="3">
-        <v>0</v>
-      </c>
-      <c r="O80" s="3"/>
-    </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P80" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="3"/>
+    </row>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="s">
         <v>189</v>
       </c>
@@ -4644,39 +5115,45 @@
       <c r="D81" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E81" s="2">
+        <v>2</v>
+      </c>
+      <c r="F81" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G81" s="7">
         <v>97.2</v>
       </c>
-      <c r="F81" s="7">
-        <v>0</v>
-      </c>
-      <c r="G81" s="8">
+      <c r="H81" s="7">
+        <v>0</v>
+      </c>
+      <c r="I81" s="8">
         <v>97.2</v>
       </c>
-      <c r="H81" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K81" s="3">
         <v>25</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>24</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>1</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q81" s="3"/>
+    </row>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
         <v>191</v>
       </c>
@@ -4686,41 +5163,47 @@
       <c r="D82" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E82" s="7">
-        <v>100</v>
-      </c>
-      <c r="F82" s="7">
+      <c r="E82" s="2">
+        <v>2</v>
+      </c>
+      <c r="F82" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G82" s="7">
+        <v>100</v>
+      </c>
+      <c r="H82" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G82" s="8">
+      <c r="I82" s="8">
         <v>105.1</v>
       </c>
-      <c r="H82" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I82" s="3">
+      <c r="J82" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K82" s="3">
         <v>23</v>
       </c>
-      <c r="J82" s="3">
-        <v>0</v>
-      </c>
-      <c r="K82" s="3">
-        <v>0</v>
-      </c>
       <c r="L82" s="3">
+        <v>0</v>
+      </c>
+      <c r="M82" s="3">
+        <v>0</v>
+      </c>
+      <c r="N82" s="3">
         <v>23</v>
       </c>
-      <c r="M82" s="3">
-        <v>0</v>
-      </c>
-      <c r="N82" s="3">
-        <v>0</v>
-      </c>
-      <c r="O82" s="3" t="s">
+      <c r="O82" s="3">
+        <v>0</v>
+      </c>
+      <c r="P82" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="3" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
         <v>193</v>
       </c>
@@ -4730,39 +5213,45 @@
       <c r="D83" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E83" s="7">
-        <v>100</v>
-      </c>
-      <c r="F83" s="7">
-        <v>0</v>
-      </c>
-      <c r="G83" s="8">
-        <v>100</v>
-      </c>
-      <c r="H83" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="E83" s="2">
+        <v>2</v>
+      </c>
+      <c r="F83" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G83" s="7">
+        <v>100</v>
+      </c>
+      <c r="H83" s="7">
+        <v>0</v>
+      </c>
+      <c r="I83" s="8">
+        <v>100</v>
+      </c>
+      <c r="J83" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K83" s="3">
         <v>30</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>30</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3"/>
+    </row>
+    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="s">
         <v>195</v>
       </c>
@@ -4772,39 +5261,45 @@
       <c r="D84" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E84" s="7">
-        <v>100</v>
-      </c>
-      <c r="F84" s="7">
-        <v>0</v>
-      </c>
-      <c r="G84" s="8">
-        <v>100</v>
-      </c>
-      <c r="H84" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I84" s="3">
+      <c r="E84" s="2">
+        <v>2</v>
+      </c>
+      <c r="F84" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G84" s="7">
+        <v>100</v>
+      </c>
+      <c r="H84" s="7">
+        <v>0</v>
+      </c>
+      <c r="I84" s="8">
+        <v>100</v>
+      </c>
+      <c r="J84" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K84" s="3">
         <v>23</v>
       </c>
-      <c r="J84" s="3">
-        <v>0</v>
-      </c>
-      <c r="K84" s="3">
-        <v>0</v>
-      </c>
       <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
         <v>23</v>
       </c>
-      <c r="M84" s="3">
-        <v>0</v>
-      </c>
-      <c r="N84" s="3">
-        <v>0</v>
-      </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3"/>
+    </row>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
         <v>197</v>
       </c>
@@ -4814,41 +5309,47 @@
       <c r="D85" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E85" s="2">
+        <v>2</v>
+      </c>
+      <c r="F85" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G85" s="7">
         <v>97.33793103448275</v>
       </c>
-      <c r="F85" s="7">
+      <c r="H85" s="7">
         <v>3</v>
       </c>
-      <c r="G85" s="8">
+      <c r="I85" s="8">
         <v>100.33793103448275</v>
       </c>
-      <c r="H85" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I85" s="3">
+      <c r="J85" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K85" s="3">
         <v>38</v>
       </c>
-      <c r="J85" s="3">
-        <v>0</v>
-      </c>
-      <c r="K85" s="3">
-        <v>0</v>
-      </c>
       <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
         <v>36</v>
       </c>
-      <c r="M85" s="3">
+      <c r="O85" s="3">
         <v>1</v>
       </c>
-      <c r="N85" s="3">
+      <c r="P85" s="3">
         <v>1</v>
       </c>
-      <c r="O85" s="3" t="s">
+      <c r="Q85" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
         <v>199</v>
       </c>
@@ -4858,41 +5359,47 @@
       <c r="D86" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E86" s="7">
-        <v>100</v>
-      </c>
-      <c r="F86" s="7">
+      <c r="E86" s="2">
+        <v>2</v>
+      </c>
+      <c r="F86" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G86" s="7">
+        <v>100</v>
+      </c>
+      <c r="H86" s="7">
         <v>-0.3</v>
       </c>
-      <c r="G86" s="8">
+      <c r="I86" s="8">
         <v>99.7</v>
       </c>
-      <c r="H86" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I86" s="3">
+      <c r="J86" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K86" s="3">
         <v>14</v>
       </c>
-      <c r="J86" s="3">
-        <v>0</v>
-      </c>
-      <c r="K86" s="3">
-        <v>0</v>
-      </c>
       <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
         <v>14</v>
       </c>
-      <c r="M86" s="3">
-        <v>0</v>
-      </c>
-      <c r="N86" s="3">
-        <v>0</v>
-      </c>
-      <c r="O86" s="3" t="s">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
         <v>201</v>
       </c>
@@ -4902,41 +5409,47 @@
       <c r="D87" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E87" s="7">
-        <v>100</v>
-      </c>
-      <c r="F87" s="7">
+      <c r="E87" s="2">
+        <v>2</v>
+      </c>
+      <c r="F87" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G87" s="7">
+        <v>100</v>
+      </c>
+      <c r="H87" s="7">
         <v>3</v>
       </c>
-      <c r="G87" s="8">
+      <c r="I87" s="8">
         <v>103</v>
       </c>
-      <c r="H87" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I87" s="3">
+      <c r="J87" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K87" s="3">
         <v>33</v>
       </c>
-      <c r="J87" s="3">
-        <v>0</v>
-      </c>
-      <c r="K87" s="3">
-        <v>0</v>
-      </c>
       <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
         <v>33</v>
       </c>
-      <c r="M87" s="3">
-        <v>0</v>
-      </c>
-      <c r="N87" s="3">
-        <v>0</v>
-      </c>
-      <c r="O87" s="3" t="s">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
         <v>203</v>
       </c>
@@ -4946,39 +5459,45 @@
       <c r="D88" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E88" s="7">
-        <v>100</v>
-      </c>
-      <c r="F88" s="7">
-        <v>0</v>
-      </c>
-      <c r="G88" s="8">
-        <v>100</v>
-      </c>
-      <c r="H88" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I88" s="3">
+      <c r="E88" s="2">
+        <v>2</v>
+      </c>
+      <c r="F88" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G88" s="7">
+        <v>100</v>
+      </c>
+      <c r="H88" s="7">
+        <v>0</v>
+      </c>
+      <c r="I88" s="8">
+        <v>100</v>
+      </c>
+      <c r="J88" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K88" s="3">
         <v>13</v>
       </c>
-      <c r="J88" s="3">
-        <v>0</v>
-      </c>
-      <c r="K88" s="3">
-        <v>0</v>
-      </c>
       <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
         <v>13</v>
       </c>
-      <c r="M88" s="3">
-        <v>0</v>
-      </c>
-      <c r="N88" s="3">
-        <v>0</v>
-      </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3"/>
+    </row>
+    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
         <v>205</v>
       </c>
@@ -4988,41 +5507,47 @@
       <c r="D89" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E89" s="7">
-        <v>100</v>
-      </c>
-      <c r="F89" s="7">
+      <c r="E89" s="2">
+        <v>2</v>
+      </c>
+      <c r="F89" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G89" s="7">
+        <v>100</v>
+      </c>
+      <c r="H89" s="7">
         <v>6</v>
       </c>
-      <c r="G89" s="8">
+      <c r="I89" s="8">
         <v>106</v>
       </c>
-      <c r="H89" s="8">
+      <c r="J89" s="8">
         <v>1.3</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>22</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>22</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3" t="s">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
         <v>207</v>
       </c>
@@ -5032,39 +5557,45 @@
       <c r="D90" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E90" s="7">
-        <v>100</v>
-      </c>
-      <c r="F90" s="7">
-        <v>0</v>
-      </c>
-      <c r="G90" s="8">
-        <v>100</v>
-      </c>
-      <c r="H90" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I90" s="3">
+      <c r="E90" s="2">
+        <v>2</v>
+      </c>
+      <c r="F90" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G90" s="7">
+        <v>100</v>
+      </c>
+      <c r="H90" s="7">
+        <v>0</v>
+      </c>
+      <c r="I90" s="8">
+        <v>100</v>
+      </c>
+      <c r="J90" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K90" s="3">
         <v>21</v>
       </c>
-      <c r="J90" s="3">
-        <v>0</v>
-      </c>
-      <c r="K90" s="3">
-        <v>0</v>
-      </c>
       <c r="L90" s="3">
+        <v>0</v>
+      </c>
+      <c r="M90" s="3">
+        <v>0</v>
+      </c>
+      <c r="N90" s="3">
         <v>21</v>
       </c>
-      <c r="M90" s="3">
-        <v>0</v>
-      </c>
-      <c r="N90" s="3">
-        <v>0</v>
-      </c>
-      <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O90" s="3">
+        <v>0</v>
+      </c>
+      <c r="P90" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
         <v>209</v>
       </c>
@@ -5074,41 +5605,47 @@
       <c r="D91" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E91" s="7">
-        <v>100</v>
-      </c>
-      <c r="F91" s="7">
+      <c r="E91" s="2">
+        <v>2</v>
+      </c>
+      <c r="F91" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G91" s="7">
+        <v>100</v>
+      </c>
+      <c r="H91" s="7">
         <v>3</v>
       </c>
-      <c r="G91" s="8">
+      <c r="I91" s="8">
         <v>103</v>
       </c>
-      <c r="H91" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="J91" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K91" s="3">
         <v>35</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>35</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
         <v>211</v>
       </c>
@@ -5118,39 +5655,45 @@
       <c r="D92" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E92" s="7">
+      <c r="E92" s="2">
+        <v>2</v>
+      </c>
+      <c r="F92" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G92" s="7">
         <v>98.421052631578945</v>
       </c>
-      <c r="F92" s="7">
-        <v>0</v>
-      </c>
-      <c r="G92" s="8">
+      <c r="H92" s="7">
+        <v>0</v>
+      </c>
+      <c r="I92" s="8">
         <v>98.421052631578945</v>
       </c>
-      <c r="H92" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I92" s="3">
+      <c r="J92" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K92" s="3">
         <v>19</v>
       </c>
-      <c r="J92" s="3">
-        <v>0</v>
-      </c>
-      <c r="K92" s="3">
-        <v>0</v>
-      </c>
       <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
         <v>18</v>
       </c>
-      <c r="M92" s="3">
+      <c r="O92" s="3">
         <v>1</v>
       </c>
-      <c r="N92" s="3">
-        <v>0</v>
-      </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3"/>
+    </row>
+    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="s">
         <v>213</v>
       </c>
@@ -5160,39 +5703,45 @@
       <c r="D93" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E93" s="7">
+      <c r="E93" s="2">
+        <v>2</v>
+      </c>
+      <c r="F93" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G93" s="7">
         <v>98.5</v>
       </c>
-      <c r="F93" s="7">
-        <v>0</v>
-      </c>
-      <c r="G93" s="8">
+      <c r="H93" s="7">
+        <v>0</v>
+      </c>
+      <c r="I93" s="8">
         <v>98.5</v>
       </c>
-      <c r="H93" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I93" s="3">
+      <c r="J93" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K93" s="3">
         <v>20</v>
       </c>
-      <c r="J93" s="3">
-        <v>0</v>
-      </c>
-      <c r="K93" s="3">
-        <v>0</v>
-      </c>
       <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
         <v>19</v>
       </c>
-      <c r="M93" s="3">
+      <c r="O93" s="3">
         <v>1</v>
       </c>
-      <c r="N93" s="3">
-        <v>0</v>
-      </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3"/>
+    </row>
+    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
         <v>215</v>
       </c>
@@ -5202,41 +5751,47 @@
       <c r="D94" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E94" s="7">
-        <v>100</v>
-      </c>
-      <c r="F94" s="7">
+      <c r="E94" s="2">
+        <v>2</v>
+      </c>
+      <c r="F94" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G94" s="7">
+        <v>100</v>
+      </c>
+      <c r="H94" s="7">
         <v>3</v>
       </c>
-      <c r="G94" s="8">
+      <c r="I94" s="8">
         <v>103</v>
       </c>
-      <c r="H94" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="J94" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K94" s="3">
         <v>22</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>22</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B95" s="3" t="s">
         <v>217</v>
       </c>
@@ -5246,41 +5801,47 @@
       <c r="D95" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E95" s="7">
-        <v>100</v>
-      </c>
-      <c r="F95" s="7">
+      <c r="E95" s="2">
+        <v>2</v>
+      </c>
+      <c r="F95" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G95" s="7">
+        <v>100</v>
+      </c>
+      <c r="H95" s="7">
         <v>3</v>
       </c>
-      <c r="G95" s="8">
+      <c r="I95" s="8">
         <v>103</v>
       </c>
-      <c r="H95" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I95" s="3">
+      <c r="J95" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K95" s="3">
         <v>12</v>
       </c>
-      <c r="J95" s="3">
-        <v>0</v>
-      </c>
-      <c r="K95" s="3">
-        <v>0</v>
-      </c>
       <c r="L95" s="3">
+        <v>0</v>
+      </c>
+      <c r="M95" s="3">
+        <v>0</v>
+      </c>
+      <c r="N95" s="3">
         <v>12</v>
       </c>
-      <c r="M95" s="3">
-        <v>0</v>
-      </c>
-      <c r="N95" s="3">
-        <v>0</v>
-      </c>
-      <c r="O95" s="3" t="s">
+      <c r="O95" s="3">
+        <v>0</v>
+      </c>
+      <c r="P95" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
         <v>65</v>
       </c>
@@ -5290,41 +5851,47 @@
       <c r="D96" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="E96" s="7">
-        <v>100</v>
-      </c>
-      <c r="F96" s="7">
+      <c r="E96" s="2">
+        <v>2</v>
+      </c>
+      <c r="F96" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G96" s="7">
+        <v>100</v>
+      </c>
+      <c r="H96" s="7">
         <v>3</v>
       </c>
-      <c r="G96" s="8">
+      <c r="I96" s="8">
         <v>103</v>
       </c>
-      <c r="H96" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I96" s="3">
+      <c r="J96" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K96" s="3">
         <v>43</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>43</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3" t="s">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
         <v>249</v>
       </c>
@@ -5334,39 +5901,45 @@
       <c r="D97" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E97" s="7">
+      <c r="E97" s="2">
+        <v>2</v>
+      </c>
+      <c r="F97" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G97" s="7">
         <v>96.323999999999998</v>
       </c>
-      <c r="F97" s="7">
-        <v>0</v>
-      </c>
-      <c r="G97" s="8">
+      <c r="H97" s="7">
+        <v>0</v>
+      </c>
+      <c r="I97" s="8">
         <v>96.323999999999998</v>
       </c>
-      <c r="H97" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="I97" s="3">
+      <c r="J97" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="K97" s="3">
         <v>24</v>
       </c>
-      <c r="J97" s="3">
-        <v>0</v>
-      </c>
-      <c r="K97" s="3">
-        <v>0</v>
-      </c>
       <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
         <v>23</v>
       </c>
-      <c r="M97" s="3">
+      <c r="O97" s="3">
         <v>1</v>
       </c>
-      <c r="N97" s="3">
-        <v>0</v>
-      </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3"/>
+    </row>
+    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="s">
         <v>50</v>
       </c>
@@ -5376,39 +5949,45 @@
       <c r="D98" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E98" s="7">
+      <c r="E98" s="2">
+        <v>2</v>
+      </c>
+      <c r="F98" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G98" s="7">
         <v>82.887776811423876</v>
       </c>
-      <c r="F98" s="7">
-        <v>0</v>
-      </c>
-      <c r="G98" s="8">
+      <c r="H98" s="7">
+        <v>0</v>
+      </c>
+      <c r="I98" s="8">
         <v>82.887776811423876</v>
       </c>
-      <c r="H98" s="8">
+      <c r="J98" s="8">
         <v>1</v>
       </c>
-      <c r="I98" s="3">
+      <c r="K98" s="3">
         <v>46</v>
       </c>
-      <c r="J98" s="3">
-        <v>0</v>
-      </c>
-      <c r="K98" s="3">
-        <v>0</v>
-      </c>
       <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
         <v>29</v>
       </c>
-      <c r="M98" s="3">
+      <c r="O98" s="3">
         <v>14</v>
       </c>
-      <c r="N98" s="3">
+      <c r="P98" s="3">
         <v>3</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q98" s="3"/>
+    </row>
+    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
         <v>251</v>
       </c>
@@ -5418,39 +5997,45 @@
       <c r="D99" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E99" s="7">
+      <c r="E99" s="2">
+        <v>2</v>
+      </c>
+      <c r="F99" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G99" s="7">
         <v>80.875</v>
       </c>
-      <c r="F99" s="7">
+      <c r="H99" s="7">
         <v>-0.6</v>
       </c>
-      <c r="G99" s="8">
+      <c r="I99" s="8">
         <v>80.275000000000006</v>
       </c>
-      <c r="H99" s="8">
+      <c r="J99" s="8">
         <v>1</v>
       </c>
-      <c r="I99" s="3">
+      <c r="K99" s="3">
         <v>15</v>
       </c>
-      <c r="J99" s="3">
-        <v>0</v>
-      </c>
-      <c r="K99" s="3">
-        <v>0</v>
-      </c>
       <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
         <v>15</v>
       </c>
-      <c r="M99" s="3">
-        <v>0</v>
-      </c>
-      <c r="N99" s="3">
-        <v>0</v>
-      </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3"/>
+    </row>
+    <row r="100" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B100" s="3" t="s">
         <v>253</v>
       </c>
@@ -5460,39 +6045,45 @@
       <c r="D100" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E100" s="7">
+      <c r="E100" s="2">
+        <v>2</v>
+      </c>
+      <c r="F100" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G100" s="7">
         <v>90.96802816901409</v>
       </c>
-      <c r="F100" s="7">
-        <v>0</v>
-      </c>
-      <c r="G100" s="8">
+      <c r="H100" s="7">
+        <v>0</v>
+      </c>
+      <c r="I100" s="8">
         <v>90.96802816901409</v>
       </c>
-      <c r="H100" s="8">
+      <c r="J100" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>37</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>34</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>3</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3"/>
+    </row>
+    <row r="101" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B101" s="3" t="s">
         <v>61</v>
       </c>
@@ -5503,38 +6094,44 @@
         <v>70</v>
       </c>
       <c r="E101" s="2">
+        <v>2</v>
+      </c>
+      <c r="F101" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G101" s="2">
         <v>95.353913002497748</v>
       </c>
-      <c r="F101" s="2">
+      <c r="H101" s="2">
         <v>3</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>98.353913002497748</v>
       </c>
-      <c r="H101" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="K101" s="3">
         <v>146</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>126</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>19</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>1</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="Q101" s="3"/>
+    </row>
+    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B102" s="3" t="s">
         <v>255</v>
       </c>
@@ -5545,38 +6142,44 @@
         <v>70</v>
       </c>
       <c r="E102" s="2">
+        <v>2</v>
+      </c>
+      <c r="F102" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G102" s="2">
         <v>80.742857142857133</v>
       </c>
-      <c r="F102" s="2">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="2">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>80.742857142857133</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>12</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>11</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3"/>
-    </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3"/>
+    </row>
+    <row r="103" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
         <v>53</v>
       </c>
@@ -5587,38 +6190,44 @@
         <v>70</v>
       </c>
       <c r="E103" s="2">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F103" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G103" s="2">
+        <v>100</v>
+      </c>
+      <c r="H103" s="2">
         <v>3</v>
       </c>
-      <c r="G103" s="3">
+      <c r="I103" s="3">
         <v>103</v>
       </c>
-      <c r="H103" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="I103" s="3">
+      <c r="J103" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="K103" s="3">
         <v>69</v>
       </c>
-      <c r="J103" s="3">
-        <v>0</v>
-      </c>
-      <c r="K103" s="3">
-        <v>0</v>
-      </c>
       <c r="L103" s="3">
+        <v>0</v>
+      </c>
+      <c r="M103" s="3">
+        <v>0</v>
+      </c>
+      <c r="N103" s="3">
         <v>69</v>
       </c>
-      <c r="M103" s="3">
-        <v>0</v>
-      </c>
-      <c r="N103" s="3">
-        <v>0</v>
-      </c>
-      <c r="O103" s="3"/>
-    </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O103" s="3">
+        <v>0</v>
+      </c>
+      <c r="P103" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="3"/>
+    </row>
+    <row r="104" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B104" s="3" t="s">
         <v>55</v>
       </c>
@@ -5629,38 +6238,44 @@
         <v>70</v>
       </c>
       <c r="E104" s="2">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F104" s="2">
-        <v>0</v>
-      </c>
-      <c r="G104" s="3">
-        <v>100</v>
-      </c>
-      <c r="H104" s="3">
-        <v>1.2</v>
+        <v>2024</v>
+      </c>
+      <c r="G104" s="2">
+        <v>100</v>
+      </c>
+      <c r="H104" s="2">
+        <v>0</v>
       </c>
       <c r="I104" s="3">
+        <v>100</v>
+      </c>
+      <c r="J104" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="K104" s="3">
         <v>99</v>
       </c>
-      <c r="J104" s="3">
-        <v>0</v>
-      </c>
-      <c r="K104" s="3">
-        <v>0</v>
-      </c>
       <c r="L104" s="3">
+        <v>0</v>
+      </c>
+      <c r="M104" s="3">
+        <v>0</v>
+      </c>
+      <c r="N104" s="3">
         <v>99</v>
       </c>
-      <c r="M104" s="3">
-        <v>0</v>
-      </c>
-      <c r="N104" s="3">
-        <v>0</v>
-      </c>
-      <c r="O104" s="3"/>
-    </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O104" s="3">
+        <v>0</v>
+      </c>
+      <c r="P104" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="3"/>
+    </row>
+    <row r="105" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B105" s="3" t="s">
         <v>257</v>
       </c>
@@ -5671,38 +6286,44 @@
         <v>70</v>
       </c>
       <c r="E105" s="2">
+        <v>2</v>
+      </c>
+      <c r="F105" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G105" s="2">
         <v>98.476190476190482</v>
       </c>
-      <c r="F105" s="2">
-        <v>0</v>
-      </c>
-      <c r="G105" s="3">
+      <c r="H105" s="2">
+        <v>0</v>
+      </c>
+      <c r="I105" s="3">
         <v>98.476190476190482</v>
       </c>
-      <c r="H105" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="I105" s="3">
+      <c r="J105" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="K105" s="3">
         <v>46</v>
       </c>
-      <c r="J105" s="3">
-        <v>0</v>
-      </c>
-      <c r="K105" s="3">
-        <v>0</v>
-      </c>
       <c r="L105" s="3">
+        <v>0</v>
+      </c>
+      <c r="M105" s="3">
+        <v>0</v>
+      </c>
+      <c r="N105" s="3">
         <v>44</v>
       </c>
-      <c r="M105" s="3">
-        <v>2</v>
-      </c>
-      <c r="N105" s="3">
-        <v>0</v>
-      </c>
-      <c r="O105" s="3"/>
-    </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O105" s="3">
+        <v>2</v>
+      </c>
+      <c r="P105" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="3"/>
+    </row>
+    <row r="106" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B106" s="3" t="s">
         <v>259</v>
       </c>
@@ -5713,38 +6334,44 @@
         <v>70</v>
       </c>
       <c r="E106" s="2">
+        <v>2</v>
+      </c>
+      <c r="F106" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G106" s="2">
         <v>97.802325581395337</v>
       </c>
-      <c r="F106" s="2">
-        <v>0</v>
-      </c>
-      <c r="G106" s="3">
+      <c r="H106" s="2">
+        <v>0</v>
+      </c>
+      <c r="I106" s="3">
         <v>97.802325581395337</v>
       </c>
-      <c r="H106" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="I106" s="3">
+      <c r="J106" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="K106" s="3">
         <v>26</v>
       </c>
-      <c r="J106" s="3">
-        <v>0</v>
-      </c>
-      <c r="K106" s="3">
-        <v>0</v>
-      </c>
       <c r="L106" s="3">
+        <v>0</v>
+      </c>
+      <c r="M106" s="3">
+        <v>0</v>
+      </c>
+      <c r="N106" s="3">
         <v>24</v>
       </c>
-      <c r="M106" s="3">
-        <v>2</v>
-      </c>
-      <c r="N106" s="3">
-        <v>0</v>
-      </c>
-      <c r="O106" s="3"/>
-    </row>
-    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O106" s="3">
+        <v>2</v>
+      </c>
+      <c r="P106" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="3"/>
+    </row>
+    <row r="107" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B107" s="3" t="s">
         <v>261</v>
       </c>
@@ -5755,38 +6382,44 @@
         <v>70</v>
       </c>
       <c r="E107" s="2">
+        <v>2</v>
+      </c>
+      <c r="F107" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G107" s="2">
         <v>93.40458015267177</v>
       </c>
-      <c r="F107" s="2">
+      <c r="H107" s="2">
         <v>2.1</v>
       </c>
-      <c r="G107" s="3">
+      <c r="I107" s="3">
         <v>95.504580152671764</v>
       </c>
-      <c r="H107" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="I107" s="3">
+      <c r="J107" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="K107" s="3">
         <v>40</v>
       </c>
-      <c r="J107" s="3">
-        <v>0</v>
-      </c>
-      <c r="K107" s="3">
-        <v>0</v>
-      </c>
       <c r="L107" s="3">
+        <v>0</v>
+      </c>
+      <c r="M107" s="3">
+        <v>0</v>
+      </c>
+      <c r="N107" s="3">
         <v>31</v>
       </c>
-      <c r="M107" s="3">
+      <c r="O107" s="3">
         <v>9</v>
       </c>
-      <c r="N107" s="3">
-        <v>0</v>
-      </c>
-      <c r="O107" s="3"/>
-    </row>
-    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P107" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="3"/>
+    </row>
+    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B108" s="3" t="s">
         <v>59</v>
       </c>
@@ -5797,38 +6430,44 @@
         <v>70</v>
       </c>
       <c r="E108" s="2">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F108" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G108" s="2">
+        <v>100</v>
+      </c>
+      <c r="H108" s="2">
         <v>2.7</v>
       </c>
-      <c r="G108" s="3">
+      <c r="I108" s="3">
         <v>102.7</v>
       </c>
-      <c r="H108" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="I108" s="3">
+      <c r="J108" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="K108" s="3">
         <v>65</v>
       </c>
-      <c r="J108" s="3">
-        <v>0</v>
-      </c>
-      <c r="K108" s="3">
-        <v>0</v>
-      </c>
       <c r="L108" s="3">
+        <v>0</v>
+      </c>
+      <c r="M108" s="3">
+        <v>0</v>
+      </c>
+      <c r="N108" s="3">
         <v>65</v>
       </c>
-      <c r="M108" s="3">
-        <v>0</v>
-      </c>
-      <c r="N108" s="3">
-        <v>0</v>
-      </c>
-      <c r="O108" s="3"/>
-    </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O108" s="3">
+        <v>0</v>
+      </c>
+      <c r="P108" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="3"/>
+    </row>
+    <row r="109" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B109" s="3" t="s">
         <v>67</v>
       </c>
@@ -5839,38 +6478,44 @@
         <v>70</v>
       </c>
       <c r="E109" s="2">
+        <v>2</v>
+      </c>
+      <c r="F109" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G109" s="2">
         <v>98.411764705882348</v>
       </c>
-      <c r="F109" s="2">
-        <v>0</v>
-      </c>
-      <c r="G109" s="3">
+      <c r="H109" s="2">
+        <v>0</v>
+      </c>
+      <c r="I109" s="3">
         <v>98.411764705882348</v>
       </c>
-      <c r="H109" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="I109" s="3">
+      <c r="J109" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="K109" s="3">
         <v>73</v>
       </c>
-      <c r="J109" s="3">
-        <v>0</v>
-      </c>
-      <c r="K109" s="3">
-        <v>0</v>
-      </c>
       <c r="L109" s="3">
+        <v>0</v>
+      </c>
+      <c r="M109" s="3">
+        <v>0</v>
+      </c>
+      <c r="N109" s="3">
         <v>69</v>
       </c>
-      <c r="M109" s="3">
+      <c r="O109" s="3">
         <v>4</v>
       </c>
-      <c r="N109" s="3">
-        <v>0</v>
-      </c>
-      <c r="O109" s="3"/>
-    </row>
-    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P109" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="3"/>
+    </row>
+    <row r="110" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B110" s="3" t="s">
         <v>263</v>
       </c>
@@ -5881,38 +6526,44 @@
         <v>70</v>
       </c>
       <c r="E110" s="2">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F110" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G110" s="2">
+        <v>100</v>
+      </c>
+      <c r="H110" s="2">
         <v>-0.3</v>
       </c>
-      <c r="G110" s="3">
+      <c r="I110" s="3">
         <v>99.7</v>
       </c>
-      <c r="H110" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="I110" s="3">
+      <c r="J110" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="K110" s="3">
         <v>46</v>
       </c>
-      <c r="J110" s="3">
-        <v>0</v>
-      </c>
-      <c r="K110" s="3">
-        <v>0</v>
-      </c>
       <c r="L110" s="3">
+        <v>0</v>
+      </c>
+      <c r="M110" s="3">
+        <v>0</v>
+      </c>
+      <c r="N110" s="3">
         <v>46</v>
       </c>
-      <c r="M110" s="3">
-        <v>0</v>
-      </c>
-      <c r="N110" s="3">
-        <v>0</v>
-      </c>
-      <c r="O110" s="3"/>
-    </row>
-    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O110" s="3">
+        <v>0</v>
+      </c>
+      <c r="P110" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="3"/>
+    </row>
+    <row r="111" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B111" s="3" t="s">
         <v>63</v>
       </c>
@@ -5923,38 +6574,44 @@
         <v>70</v>
       </c>
       <c r="E111" s="2">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F111" s="2">
-        <v>0</v>
-      </c>
-      <c r="G111" s="3">
-        <v>100</v>
-      </c>
-      <c r="H111" s="3">
-        <v>1.2</v>
+        <v>2024</v>
+      </c>
+      <c r="G111" s="2">
+        <v>100</v>
+      </c>
+      <c r="H111" s="2">
+        <v>0</v>
       </c>
       <c r="I111" s="3">
+        <v>100</v>
+      </c>
+      <c r="J111" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="K111" s="3">
         <v>15</v>
       </c>
-      <c r="J111" s="3">
-        <v>0</v>
-      </c>
-      <c r="K111" s="3">
-        <v>0</v>
-      </c>
       <c r="L111" s="3">
+        <v>0</v>
+      </c>
+      <c r="M111" s="3">
+        <v>0</v>
+      </c>
+      <c r="N111" s="3">
         <v>15</v>
       </c>
-      <c r="M111" s="3">
-        <v>0</v>
-      </c>
-      <c r="N111" s="3">
-        <v>0</v>
-      </c>
-      <c r="O111" s="3"/>
-    </row>
-    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O111" s="3">
+        <v>0</v>
+      </c>
+      <c r="P111" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="3"/>
+    </row>
+    <row r="112" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B112" s="3" t="s">
         <v>57</v>
       </c>
@@ -5965,45 +6622,51 @@
         <v>70</v>
       </c>
       <c r="E112" s="2">
+        <v>2</v>
+      </c>
+      <c r="F112" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G112" s="2">
         <v>96.538461538461547</v>
       </c>
-      <c r="F112" s="2">
-        <v>0</v>
-      </c>
-      <c r="G112" s="3">
+      <c r="H112" s="2">
+        <v>0</v>
+      </c>
+      <c r="I112" s="3">
         <v>96.538461538461547</v>
       </c>
-      <c r="H112" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="I112" s="3">
+      <c r="J112" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="K112" s="3">
         <v>11</v>
       </c>
-      <c r="J112" s="3">
-        <v>0</v>
-      </c>
-      <c r="K112" s="3">
-        <v>0</v>
-      </c>
       <c r="L112" s="3">
+        <v>0</v>
+      </c>
+      <c r="M112" s="3">
+        <v>0</v>
+      </c>
+      <c r="N112" s="3">
         <v>10</v>
       </c>
-      <c r="M112" s="3">
+      <c r="O112" s="3">
         <v>1</v>
       </c>
-      <c r="N112" s="3">
-        <v>0</v>
-      </c>
-      <c r="O112" s="3"/>
-    </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P112" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="3"/>
+    </row>
+    <row r="113" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
@@ -6011,15 +6674,17 @@
       <c r="M113" s="3"/>
       <c r="N113" s="3"/>
       <c r="O113" s="3"/>
-    </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P113" s="3"/>
+      <c r="Q113" s="3"/>
+    </row>
+    <row r="114" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
-      <c r="G114" s="3"/>
-      <c r="H114" s="3"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
@@ -6027,15 +6692,17 @@
       <c r="M114" s="3"/>
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
-    </row>
-    <row r="115" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P114" s="3"/>
+      <c r="Q114" s="3"/>
+    </row>
+    <row r="115" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
@@ -6043,15 +6710,17 @@
       <c r="M115" s="3"/>
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
-    </row>
-    <row r="116" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P115" s="3"/>
+      <c r="Q115" s="3"/>
+    </row>
+    <row r="116" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="3"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
@@ -6059,15 +6728,17 @@
       <c r="M116" s="3"/>
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
-    </row>
-    <row r="117" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P116" s="3"/>
+      <c r="Q116" s="3"/>
+    </row>
+    <row r="117" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
@@ -6075,15 +6746,17 @@
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
-    </row>
-    <row r="118" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P117" s="3"/>
+      <c r="Q117" s="3"/>
+    </row>
+    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
@@ -6091,15 +6764,17 @@
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
       <c r="O118" s="3"/>
-    </row>
-    <row r="119" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P118" s="3"/>
+      <c r="Q118" s="3"/>
+    </row>
+    <row r="119" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
@@ -6107,15 +6782,17 @@
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
       <c r="O119" s="3"/>
-    </row>
-    <row r="120" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P119" s="3"/>
+      <c r="Q119" s="3"/>
+    </row>
+    <row r="120" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
@@ -6123,15 +6800,17 @@
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
       <c r="O120" s="3"/>
-    </row>
-    <row r="121" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P120" s="3"/>
+      <c r="Q120" s="3"/>
+    </row>
+    <row r="121" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
-      <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
@@ -6139,15 +6818,17 @@
       <c r="M121" s="3"/>
       <c r="N121" s="3"/>
       <c r="O121" s="3"/>
-    </row>
-    <row r="122" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P121" s="3"/>
+      <c r="Q121" s="3"/>
+    </row>
+    <row r="122" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
@@ -6155,15 +6836,17 @@
       <c r="M122" s="3"/>
       <c r="N122" s="3"/>
       <c r="O122" s="3"/>
-    </row>
-    <row r="123" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P122" s="3"/>
+      <c r="Q122" s="3"/>
+    </row>
+    <row r="123" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
@@ -6171,15 +6854,17 @@
       <c r="M123" s="3"/>
       <c r="N123" s="3"/>
       <c r="O123" s="3"/>
-    </row>
-    <row r="124" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P123" s="3"/>
+      <c r="Q123" s="3"/>
+    </row>
+    <row r="124" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
-      <c r="G124" s="3"/>
-      <c r="H124" s="3"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
@@ -6187,15 +6872,17 @@
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
       <c r="O124" s="3"/>
-    </row>
-    <row r="125" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P124" s="3"/>
+      <c r="Q124" s="3"/>
+    </row>
+    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
@@ -6203,15 +6890,17 @@
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
       <c r="O125" s="3"/>
-    </row>
-    <row r="126" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P125" s="3"/>
+      <c r="Q125" s="3"/>
+    </row>
+    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
@@ -6219,15 +6908,17 @@
       <c r="M126" s="3"/>
       <c r="N126" s="3"/>
       <c r="O126" s="3"/>
-    </row>
-    <row r="127" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P126" s="3"/>
+      <c r="Q126" s="3"/>
+    </row>
+    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
@@ -6235,15 +6926,17 @@
       <c r="M127" s="3"/>
       <c r="N127" s="3"/>
       <c r="O127" s="3"/>
-    </row>
-    <row r="128" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P127" s="3"/>
+      <c r="Q127" s="3"/>
+    </row>
+    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
-      <c r="G128" s="3"/>
-      <c r="H128" s="3"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
@@ -6251,15 +6944,17 @@
       <c r="M128" s="3"/>
       <c r="N128" s="3"/>
       <c r="O128" s="3"/>
-    </row>
-    <row r="129" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P128" s="3"/>
+      <c r="Q128" s="3"/>
+    </row>
+    <row r="129" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
@@ -6267,15 +6962,17 @@
       <c r="M129" s="3"/>
       <c r="N129" s="3"/>
       <c r="O129" s="3"/>
-    </row>
-    <row r="130" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P129" s="3"/>
+      <c r="Q129" s="3"/>
+    </row>
+    <row r="130" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
-      <c r="G130" s="3"/>
-      <c r="H130" s="3"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
@@ -6283,15 +6980,17 @@
       <c r="M130" s="3"/>
       <c r="N130" s="3"/>
       <c r="O130" s="3"/>
-    </row>
-    <row r="131" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P130" s="3"/>
+      <c r="Q130" s="3"/>
+    </row>
+    <row r="131" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
-      <c r="G131" s="3"/>
-      <c r="H131" s="3"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
@@ -6299,15 +6998,17 @@
       <c r="M131" s="3"/>
       <c r="N131" s="3"/>
       <c r="O131" s="3"/>
-    </row>
-    <row r="132" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P131" s="3"/>
+      <c r="Q131" s="3"/>
+    </row>
+    <row r="132" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
@@ -6315,8 +7016,10 @@
       <c r="M132" s="3"/>
       <c r="N132" s="3"/>
       <c r="O132" s="3"/>
-    </row>
-    <row r="133" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P132" s="3"/>
+      <c r="Q132" s="3"/>
+    </row>
+    <row r="133" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -6331,544 +7034,758 @@
       <c r="M133" s="3"/>
       <c r="N133" s="3"/>
       <c r="O133" s="3"/>
-    </row>
-    <row r="134" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="P133" s="3"/>
+      <c r="Q133" s="3"/>
+    </row>
+    <row r="134" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B134" s="9"/>
     </row>
-    <row r="136" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
-      <c r="O136" s="9"/>
-    </row>
-    <row r="137" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="Q136" s="9"/>
+    </row>
+    <row r="137" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
-    </row>
-    <row r="138" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+    </row>
+    <row r="138" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
-    </row>
-    <row r="139" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+    </row>
+    <row r="139" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
-    </row>
-    <row r="140" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+    </row>
+    <row r="140" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
-    </row>
-    <row r="141" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+    </row>
+    <row r="141" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
-    </row>
-    <row r="142" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+    </row>
+    <row r="142" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
-    </row>
-    <row r="143" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+    </row>
+    <row r="143" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
-    </row>
-    <row r="144" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E143" s="9"/>
+      <c r="F143" s="9"/>
+    </row>
+    <row r="144" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
-    </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E145" s="9"/>
+      <c r="F145" s="9"/>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
-    </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E147" s="9"/>
+      <c r="F147" s="9"/>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
-    </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E148" s="9"/>
+      <c r="F148" s="9"/>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
-    </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E151" s="9"/>
+      <c r="F151" s="9"/>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
-    </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
-    </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E154" s="9"/>
+      <c r="F154" s="9"/>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
-    </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E155" s="9"/>
+      <c r="F155" s="9"/>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
-    </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
-    </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E157" s="9"/>
+      <c r="F157" s="9"/>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
-    </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E158" s="9"/>
+      <c r="F158" s="9"/>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
-    </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E159" s="9"/>
+      <c r="F159" s="9"/>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
-    </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
-    </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E161" s="9"/>
+      <c r="F161" s="9"/>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
-    </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
-    </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E163" s="9"/>
+      <c r="F163" s="9"/>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
-    </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
-    </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E165" s="9"/>
+      <c r="F165" s="9"/>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B166" s="9"/>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
-    </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E166" s="9"/>
+      <c r="F166" s="9"/>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
-    </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E167" s="9"/>
+      <c r="F167" s="9"/>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
-    </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E168" s="9"/>
+      <c r="F168" s="9"/>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
-    </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E169" s="9"/>
+      <c r="F169" s="9"/>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
-    </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E170" s="9"/>
+      <c r="F170" s="9"/>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
-    </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E171" s="9"/>
+      <c r="F171" s="9"/>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
-    </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E172" s="9"/>
+      <c r="F172" s="9"/>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
-    </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E173" s="9"/>
+      <c r="F173" s="9"/>
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
-    </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E174" s="9"/>
+      <c r="F174" s="9"/>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
       <c r="D175" s="9"/>
-    </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E175" s="9"/>
+      <c r="F175" s="9"/>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
       <c r="D176" s="9"/>
-    </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E176" s="9"/>
+      <c r="F176" s="9"/>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B177" s="9"/>
       <c r="C177" s="9"/>
       <c r="D177" s="9"/>
-    </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E177" s="9"/>
+      <c r="F177" s="9"/>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
       <c r="D178" s="9"/>
-    </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E178" s="9"/>
+      <c r="F178" s="9"/>
+    </row>
+    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
       <c r="D179" s="9"/>
-    </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E179" s="9"/>
+      <c r="F179" s="9"/>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
       <c r="D180" s="9"/>
-    </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E180" s="9"/>
+      <c r="F180" s="9"/>
+    </row>
+    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
       <c r="D181" s="9"/>
-    </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E181" s="9"/>
+      <c r="F181" s="9"/>
+    </row>
+    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
       <c r="D182" s="9"/>
-    </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E182" s="9"/>
+      <c r="F182" s="9"/>
+    </row>
+    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
       <c r="D183" s="9"/>
-    </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E183" s="9"/>
+      <c r="F183" s="9"/>
+    </row>
+    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
       <c r="D184" s="9"/>
-    </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E184" s="9"/>
+      <c r="F184" s="9"/>
+    </row>
+    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
       <c r="D185" s="9"/>
-    </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E185" s="9"/>
+      <c r="F185" s="9"/>
+    </row>
+    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
       <c r="D186" s="9"/>
-    </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E186" s="9"/>
+      <c r="F186" s="9"/>
+    </row>
+    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
-    </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E187" s="9"/>
+      <c r="F187" s="9"/>
+    </row>
+    <row r="188" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
       <c r="D188" s="9"/>
-    </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E188" s="9"/>
+      <c r="F188" s="9"/>
+    </row>
+    <row r="189" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
       <c r="D189" s="9"/>
-    </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E189" s="9"/>
+      <c r="F189" s="9"/>
+    </row>
+    <row r="190" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B190" s="9"/>
       <c r="C190" s="9"/>
       <c r="D190" s="9"/>
-    </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E190" s="9"/>
+      <c r="F190" s="9"/>
+    </row>
+    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
       <c r="D191" s="9"/>
-    </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E191" s="9"/>
+      <c r="F191" s="9"/>
+    </row>
+    <row r="192" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
       <c r="D192" s="9"/>
-    </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E192" s="9"/>
+      <c r="F192" s="9"/>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B193" s="9"/>
       <c r="C193" s="9"/>
       <c r="D193" s="9"/>
-    </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E193" s="9"/>
+      <c r="F193" s="9"/>
+    </row>
+    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
       <c r="D194" s="9"/>
-    </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E194" s="9"/>
+      <c r="F194" s="9"/>
+    </row>
+    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
       <c r="D195" s="9"/>
-    </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E195" s="9"/>
+      <c r="F195" s="9"/>
+    </row>
+    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
       <c r="D196" s="9"/>
-    </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E196" s="9"/>
+      <c r="F196" s="9"/>
+    </row>
+    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B197" s="9"/>
       <c r="C197" s="9"/>
       <c r="D197" s="9"/>
-    </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E197" s="9"/>
+      <c r="F197" s="9"/>
+    </row>
+    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B198" s="9"/>
       <c r="C198" s="9"/>
       <c r="D198" s="9"/>
-    </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E198" s="9"/>
+      <c r="F198" s="9"/>
+    </row>
+    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
       <c r="D199" s="9"/>
-    </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E199" s="9"/>
+      <c r="F199" s="9"/>
+    </row>
+    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B200" s="9"/>
       <c r="C200" s="9"/>
       <c r="D200" s="9"/>
-    </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E200" s="9"/>
+      <c r="F200" s="9"/>
+    </row>
+    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B201" s="9"/>
       <c r="C201" s="9"/>
       <c r="D201" s="9"/>
-    </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E201" s="9"/>
+      <c r="F201" s="9"/>
+    </row>
+    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B202" s="9"/>
       <c r="C202" s="9"/>
       <c r="D202" s="9"/>
-    </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E202" s="9"/>
+      <c r="F202" s="9"/>
+    </row>
+    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B203" s="9"/>
       <c r="C203" s="9"/>
       <c r="D203" s="9"/>
-    </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E203" s="9"/>
+      <c r="F203" s="9"/>
+    </row>
+    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B204" s="9"/>
       <c r="C204" s="9"/>
       <c r="D204" s="9"/>
-    </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E204" s="9"/>
+      <c r="F204" s="9"/>
+    </row>
+    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B205" s="9"/>
       <c r="C205" s="9"/>
       <c r="D205" s="9"/>
-    </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E205" s="9"/>
+      <c r="F205" s="9"/>
+    </row>
+    <row r="206" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B206" s="9"/>
       <c r="C206" s="9"/>
       <c r="D206" s="9"/>
-    </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E206" s="9"/>
+      <c r="F206" s="9"/>
+    </row>
+    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
       <c r="D207" s="9"/>
-    </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E207" s="9"/>
+      <c r="F207" s="9"/>
+    </row>
+    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B208" s="9"/>
       <c r="C208" s="9"/>
       <c r="D208" s="9"/>
-    </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E208" s="9"/>
+      <c r="F208" s="9"/>
+    </row>
+    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B209" s="9"/>
       <c r="C209" s="9"/>
       <c r="D209" s="9"/>
-    </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E209" s="9"/>
+      <c r="F209" s="9"/>
+    </row>
+    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B210" s="9"/>
       <c r="C210" s="9"/>
       <c r="D210" s="9"/>
-    </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E210" s="9"/>
+      <c r="F210" s="9"/>
+    </row>
+    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B211" s="9"/>
       <c r="C211" s="9"/>
       <c r="D211" s="9"/>
-    </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E211" s="9"/>
+      <c r="F211" s="9"/>
+    </row>
+    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B212" s="9"/>
       <c r="C212" s="9"/>
       <c r="D212" s="9"/>
-    </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E212" s="9"/>
+      <c r="F212" s="9"/>
+    </row>
+    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B213" s="9"/>
       <c r="C213" s="9"/>
       <c r="D213" s="9"/>
-    </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E213" s="9"/>
+      <c r="F213" s="9"/>
+    </row>
+    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B214" s="9"/>
       <c r="C214" s="9"/>
       <c r="D214" s="9"/>
-    </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E214" s="9"/>
+      <c r="F214" s="9"/>
+    </row>
+    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B215" s="9"/>
       <c r="C215" s="9"/>
       <c r="D215" s="9"/>
-    </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E215" s="9"/>
+      <c r="F215" s="9"/>
+    </row>
+    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B216" s="9"/>
       <c r="C216" s="9"/>
       <c r="D216" s="9"/>
-    </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E216" s="9"/>
+      <c r="F216" s="9"/>
+    </row>
+    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B217" s="9"/>
       <c r="C217" s="9"/>
       <c r="D217" s="9"/>
-    </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E217" s="9"/>
+      <c r="F217" s="9"/>
+    </row>
+    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B218" s="9"/>
       <c r="C218" s="9"/>
       <c r="D218" s="9"/>
-    </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E218" s="9"/>
+      <c r="F218" s="9"/>
+    </row>
+    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B219" s="9"/>
       <c r="C219" s="9"/>
       <c r="D219" s="9"/>
-    </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E219" s="9"/>
+      <c r="F219" s="9"/>
+    </row>
+    <row r="220" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B220" s="9"/>
       <c r="C220" s="9"/>
       <c r="D220" s="9"/>
-    </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E220" s="9"/>
+      <c r="F220" s="9"/>
+    </row>
+    <row r="221" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B221" s="9"/>
       <c r="C221" s="9"/>
       <c r="D221" s="9"/>
-    </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E221" s="9"/>
+      <c r="F221" s="9"/>
+    </row>
+    <row r="222" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B222" s="9"/>
       <c r="C222" s="9"/>
       <c r="D222" s="9"/>
-    </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E222" s="9"/>
+      <c r="F222" s="9"/>
+    </row>
+    <row r="223" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B223" s="9"/>
       <c r="C223" s="9"/>
       <c r="D223" s="9"/>
-    </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E223" s="9"/>
+      <c r="F223" s="9"/>
+    </row>
+    <row r="224" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B224" s="9"/>
       <c r="C224" s="9"/>
       <c r="D224" s="9"/>
-    </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E224" s="9"/>
+      <c r="F224" s="9"/>
+    </row>
+    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B225" s="9"/>
       <c r="C225" s="9"/>
       <c r="D225" s="9"/>
-    </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E225" s="9"/>
+      <c r="F225" s="9"/>
+    </row>
+    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B226" s="9"/>
       <c r="C226" s="9"/>
       <c r="D226" s="9"/>
-    </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E226" s="9"/>
+      <c r="F226" s="9"/>
+    </row>
+    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B227" s="9"/>
       <c r="C227" s="9"/>
       <c r="D227" s="9"/>
-    </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E227" s="9"/>
+      <c r="F227" s="9"/>
+    </row>
+    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B228" s="9"/>
       <c r="C228" s="9"/>
       <c r="D228" s="9"/>
-    </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E228" s="9"/>
+      <c r="F228" s="9"/>
+    </row>
+    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B229" s="9"/>
       <c r="C229" s="9"/>
       <c r="D229" s="9"/>
-    </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E229" s="9"/>
+      <c r="F229" s="9"/>
+    </row>
+    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B230" s="9"/>
       <c r="C230" s="9"/>
       <c r="D230" s="9"/>
-    </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E230" s="9"/>
+      <c r="F230" s="9"/>
+    </row>
+    <row r="231" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
       <c r="D231" s="9"/>
-    </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E231" s="9"/>
+      <c r="F231" s="9"/>
+    </row>
+    <row r="232" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B232" s="9"/>
       <c r="C232" s="9"/>
       <c r="D232" s="9"/>
-    </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E232" s="9"/>
+      <c r="F232" s="9"/>
+    </row>
+    <row r="233" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B233" s="9"/>
       <c r="C233" s="9"/>
       <c r="D233" s="9"/>
-    </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E233" s="9"/>
+      <c r="F233" s="9"/>
+    </row>
+    <row r="234" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B234" s="9"/>
       <c r="C234" s="9"/>
       <c r="D234" s="9"/>
-    </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E234" s="9"/>
+      <c r="F234" s="9"/>
+    </row>
+    <row r="235" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B235" s="9"/>
       <c r="C235" s="9"/>
       <c r="D235" s="9"/>
-    </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E235" s="9"/>
+      <c r="F235" s="9"/>
+    </row>
+    <row r="236" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B236" s="9"/>
       <c r="C236" s="9"/>
       <c r="D236" s="9"/>
-    </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E236" s="9"/>
+      <c r="F236" s="9"/>
+    </row>
+    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B237" s="9"/>
       <c r="C237" s="9"/>
       <c r="D237" s="9"/>
-    </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E237" s="9"/>
+      <c r="F237" s="9"/>
+    </row>
+    <row r="238" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B238" s="9"/>
       <c r="C238" s="9"/>
       <c r="D238" s="9"/>
-    </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E238" s="9"/>
+      <c r="F238" s="9"/>
+    </row>
+    <row r="239" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B239" s="9"/>
       <c r="C239" s="9"/>
       <c r="D239" s="9"/>
-    </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E239" s="9"/>
+      <c r="F239" s="9"/>
+    </row>
+    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B240" s="9"/>
       <c r="C240" s="9"/>
       <c r="D240" s="9"/>
-    </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E240" s="9"/>
+      <c r="F240" s="9"/>
+    </row>
+    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B241" s="9"/>
       <c r="C241" s="9"/>
       <c r="D241" s="9"/>
+      <c r="E241" s="9"/>
+      <c r="F241" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
